--- a/Code/Results/Cases/Case_3_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_24/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.807209155551789</v>
+        <v>3.807209155551732</v>
       </c>
       <c r="C2">
-        <v>1.674330105672027</v>
+        <v>1.674330105672254</v>
       </c>
       <c r="D2">
-        <v>0.09599899167552195</v>
+        <v>0.09599899167564274</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -430,10 +430,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.073626218805046</v>
+        <v>1.073626218805032</v>
       </c>
       <c r="I2">
-        <v>2.06036766359172</v>
+        <v>2.060367663591748</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -453,25 +453,25 @@
         <v>3.270329952534837</v>
       </c>
       <c r="C3">
-        <v>1.432577846203969</v>
+        <v>1.432577846203685</v>
       </c>
       <c r="D3">
-        <v>0.08387116648125215</v>
+        <v>0.08387116648104609</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.492539638444754</v>
+        <v>2.492539638444725</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.9570632496283622</v>
+        <v>0.957063249628348</v>
       </c>
       <c r="I3">
-        <v>1.738162576337317</v>
+        <v>1.738162576337331</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.947414930705349</v>
+        <v>2.94741493070552</v>
       </c>
       <c r="C4">
         <v>1.288009602468946</v>
       </c>
       <c r="D4">
-        <v>0.07662649383231468</v>
+        <v>0.07662649383232889</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -506,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.8900405128479534</v>
+        <v>0.8900405128479605</v>
       </c>
       <c r="I4">
-        <v>1.549557223423761</v>
+        <v>1.549557223423747</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.817207305519389</v>
+        <v>2.817207305519219</v>
       </c>
       <c r="C5">
-        <v>1.229892647324107</v>
+        <v>1.229892647323993</v>
       </c>
       <c r="D5">
-        <v>0.07371310351250315</v>
+        <v>0.07371310351241078</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.18328027990411</v>
+        <v>2.183280279904096</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.8637154027443117</v>
+        <v>0.863715402744333</v>
       </c>
       <c r="I5">
         <v>1.474580628008113</v>
@@ -567,25 +567,25 @@
         <v>2.795661715497261</v>
       </c>
       <c r="C6">
-        <v>1.220285743741044</v>
+        <v>1.220285743740988</v>
       </c>
       <c r="D6">
-        <v>0.07323138101388338</v>
+        <v>0.07323138101369864</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.168822118028586</v>
+        <v>2.168822118028558</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.8593996018463557</v>
+        <v>0.8593996018463699</v>
       </c>
       <c r="I6">
-        <v>1.462233069978097</v>
+        <v>1.462233069978055</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.945653683606281</v>
+        <v>2.945653683606395</v>
       </c>
       <c r="C7">
-        <v>1.28722281002058</v>
+        <v>1.287222810020864</v>
       </c>
       <c r="D7">
-        <v>0.07658705946139577</v>
+        <v>0.07658705946140287</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.269949326753803</v>
+        <v>2.269949326753775</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.8896816768235922</v>
+        <v>0.8896816768235993</v>
       </c>
       <c r="I7">
-        <v>1.548538968727627</v>
+        <v>1.548538968727556</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.620494970274137</v>
+        <v>3.620494970274308</v>
       </c>
       <c r="C8">
         <v>1.590055664293232</v>
       </c>
       <c r="D8">
-        <v>0.0917674618621902</v>
+        <v>0.09176746186230389</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>1.032390062402584</v>
       </c>
       <c r="I8">
-        <v>1.947064697779197</v>
+        <v>1.947064697779226</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.014199981136301</v>
+        <v>5.014199981136073</v>
       </c>
       <c r="C9">
-        <v>2.224357323550009</v>
+        <v>2.224357323549896</v>
       </c>
       <c r="D9">
-        <v>0.123843748539251</v>
+        <v>0.1238437485393646</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.765945808347908</v>
+        <v>3.765945808347965</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.356844238271918</v>
+        <v>1.356844238271933</v>
       </c>
       <c r="I9">
-        <v>2.827135819198048</v>
+        <v>2.827135819198077</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>6.111048775888662</v>
       </c>
       <c r="C10">
-        <v>2.732502936156436</v>
+        <v>2.732502936156209</v>
       </c>
       <c r="D10">
-        <v>0.1502119275120606</v>
+        <v>0.1502119275122595</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -734,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.63750877747654</v>
+        <v>1.637508777476569</v>
       </c>
       <c r="I10">
-        <v>3.582087141208817</v>
+        <v>3.582087141208831</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -760,22 +760,22 @@
         <v>2.978381032076243</v>
       </c>
       <c r="D11">
-        <v>0.1633224429675977</v>
+        <v>0.1633224429677824</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>5.057585434154561</v>
+        <v>5.057585434154475</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1.779120496085909</v>
+        <v>1.779120496085866</v>
       </c>
       <c r="I11">
-        <v>3.965828149646569</v>
+        <v>3.965828149646512</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -795,25 +795,25 @@
         <v>6.838511549564998</v>
       </c>
       <c r="C12">
-        <v>3.074269238606178</v>
+        <v>3.074269238606462</v>
       </c>
       <c r="D12">
-        <v>0.168515150861964</v>
+        <v>0.1685151508622909</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>5.226701598848081</v>
+        <v>5.226701598848109</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1.835310233241501</v>
+        <v>1.835310233241543</v>
       </c>
       <c r="I12">
-        <v>4.119097755497791</v>
+        <v>4.119097755497819</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.794506832971422</v>
+        <v>6.794506832971592</v>
       </c>
       <c r="C13">
-        <v>3.053481262262324</v>
+        <v>3.053481262262437</v>
       </c>
       <c r="D13">
-        <v>0.1673852416133599</v>
+        <v>0.1673852416137578</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>1.823083687417693</v>
       </c>
       <c r="I13">
-        <v>4.085690013724886</v>
+        <v>4.0856900137249</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.651885044089511</v>
+        <v>6.65188504408934</v>
       </c>
       <c r="C14">
-        <v>2.986209473288909</v>
+        <v>2.98620947328925</v>
       </c>
       <c r="D14">
-        <v>0.163744579356333</v>
+        <v>0.1637445793565604</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>1.78368796681778</v>
       </c>
       <c r="I14">
-        <v>3.978262606986902</v>
+        <v>3.978262606986874</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.5651807715019</v>
+        <v>6.565180771502014</v>
       </c>
       <c r="C15">
         <v>2.945389135387018</v>
       </c>
       <c r="D15">
-        <v>0.1615468024118627</v>
+        <v>0.1615468024116211</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.999642464452364</v>
+        <v>4.999642464452421</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>1.759910777777307</v>
       </c>
       <c r="I15">
-        <v>3.913575858219886</v>
+        <v>3.913575858219929</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.077384555503841</v>
+        <v>6.077384555503897</v>
       </c>
       <c r="C16">
-        <v>2.716782157808211</v>
+        <v>2.716782157808325</v>
       </c>
       <c r="D16">
-        <v>0.1493826967504788</v>
+        <v>0.1493826967506209</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1.628578408999914</v>
+        <v>1.6285784089999</v>
       </c>
       <c r="I16">
-        <v>3.557985066392035</v>
+        <v>3.557985066391979</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.785286937676972</v>
+        <v>5.785286937677029</v>
       </c>
       <c r="C17">
-        <v>2.580715966077719</v>
+        <v>2.580715966077548</v>
       </c>
       <c r="D17">
-        <v>0.1422456726388788</v>
+        <v>0.1422456726389782</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1000,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1.551924980204845</v>
+        <v>1.551924980204817</v>
       </c>
       <c r="I17">
-        <v>3.351448250754856</v>
+        <v>3.351448250754899</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.619575029122757</v>
+        <v>5.619575029122416</v>
       </c>
       <c r="C18">
-        <v>2.503790082012245</v>
+        <v>2.503790082012017</v>
       </c>
       <c r="D18">
-        <v>0.1382403267548824</v>
+        <v>0.1382403267550245</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.563833789892897</v>
+        <v>5.563833789893124</v>
       </c>
       <c r="C19">
-        <v>2.477956917625477</v>
+        <v>2.477956917625761</v>
       </c>
       <c r="D19">
-        <v>0.1368996923206254</v>
+        <v>0.1368996923205117</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>1.494811803266501</v>
       </c>
       <c r="I19">
-        <v>3.197857273901505</v>
+        <v>3.197857273901548</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.816136821671194</v>
+        <v>5.816136821671421</v>
       </c>
       <c r="C20">
-        <v>2.595058082304206</v>
+        <v>2.595058082304945</v>
       </c>
       <c r="D20">
-        <v>0.1429947058727095</v>
+        <v>0.1429947058727237</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4.392250348057047</v>
+        <v>4.392250348057019</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.559949947359527</v>
+        <v>1.559949947359499</v>
       </c>
       <c r="I20">
-        <v>3.373046139102769</v>
+        <v>3.37304613910274</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1137,16 +1137,16 @@
         <v>6.693637349929361</v>
       </c>
       <c r="C21">
-        <v>3.005886943700546</v>
+        <v>3.005886943700489</v>
       </c>
       <c r="D21">
-        <v>0.1648070444063308</v>
+        <v>0.1648070444061602</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>5.105989322774178</v>
+        <v>5.10598932277415</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>1.795184421872719</v>
       </c>
       <c r="I21">
-        <v>4.009578896936773</v>
+        <v>4.009578896936716</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.295556950018977</v>
+        <v>7.295556950019147</v>
       </c>
       <c r="C22">
-        <v>3.291090680955335</v>
+        <v>3.291090680955051</v>
       </c>
       <c r="D22">
-        <v>0.1804502649102915</v>
+        <v>0.1804502649106894</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>5.612948611375032</v>
+        <v>5.61294861137506</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1.964290725078314</v>
+        <v>1.9642907250783</v>
       </c>
       <c r="I22">
         <v>4.473748576105919</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.971227989976285</v>
+        <v>6.971227989976114</v>
       </c>
       <c r="C23">
-        <v>3.137057050305998</v>
+        <v>3.137057050306225</v>
       </c>
       <c r="D23">
-        <v>0.1719425445835867</v>
+        <v>0.1719425445832314</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>5.33800707499725</v>
+        <v>5.338007074997279</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1.872388820064714</v>
+        <v>1.872388820064728</v>
       </c>
       <c r="I23">
-        <v>4.220620129083656</v>
+        <v>4.220620129083599</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.802182755515275</v>
+        <v>5.802182755515446</v>
       </c>
       <c r="C24">
-        <v>2.588570007724854</v>
+        <v>2.5885700077244</v>
       </c>
       <c r="D24">
-        <v>0.1426557678669553</v>
+        <v>0.1426557678668843</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>4.381140336994463</v>
+        <v>4.381140336994491</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>1.556318005961074</v>
       </c>
       <c r="I24">
-        <v>3.363270752990019</v>
+        <v>3.363270752990005</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1289,16 +1289,16 @@
         <v>4.626946482180188</v>
       </c>
       <c r="C25">
-        <v>2.046877411800949</v>
+        <v>2.046877411801006</v>
       </c>
       <c r="D25">
-        <v>0.1148019855882936</v>
+        <v>0.1148019855884357</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.472461063387669</v>
+        <v>3.472461063387698</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>1.262944947887917</v>
       </c>
       <c r="I25">
-        <v>2.574360636745496</v>
+        <v>2.574360636745482</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_24/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.807209155551732</v>
+        <v>3.807209155551789</v>
       </c>
       <c r="C2">
-        <v>1.674330105672254</v>
+        <v>1.674330105672027</v>
       </c>
       <c r="D2">
-        <v>0.09599899167564274</v>
+        <v>0.09599899167552195</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -430,10 +430,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.073626218805032</v>
+        <v>1.073626218805046</v>
       </c>
       <c r="I2">
-        <v>2.060367663591748</v>
+        <v>2.06036766359172</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -453,25 +453,25 @@
         <v>3.270329952534837</v>
       </c>
       <c r="C3">
-        <v>1.432577846203685</v>
+        <v>1.432577846203969</v>
       </c>
       <c r="D3">
-        <v>0.08387116648104609</v>
+        <v>0.08387116648125215</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.492539638444725</v>
+        <v>2.492539638444754</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.957063249628348</v>
+        <v>0.9570632496283622</v>
       </c>
       <c r="I3">
-        <v>1.738162576337331</v>
+        <v>1.738162576337317</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.94741493070552</v>
+        <v>2.947414930705349</v>
       </c>
       <c r="C4">
         <v>1.288009602468946</v>
       </c>
       <c r="D4">
-        <v>0.07662649383232889</v>
+        <v>0.07662649383231468</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -506,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.8900405128479605</v>
+        <v>0.8900405128479534</v>
       </c>
       <c r="I4">
-        <v>1.549557223423747</v>
+        <v>1.549557223423761</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.817207305519219</v>
+        <v>2.817207305519389</v>
       </c>
       <c r="C5">
-        <v>1.229892647323993</v>
+        <v>1.229892647324107</v>
       </c>
       <c r="D5">
-        <v>0.07371310351241078</v>
+        <v>0.07371310351250315</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.183280279904096</v>
+        <v>2.18328027990411</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.863715402744333</v>
+        <v>0.8637154027443117</v>
       </c>
       <c r="I5">
         <v>1.474580628008113</v>
@@ -567,25 +567,25 @@
         <v>2.795661715497261</v>
       </c>
       <c r="C6">
-        <v>1.220285743740988</v>
+        <v>1.220285743741044</v>
       </c>
       <c r="D6">
-        <v>0.07323138101369864</v>
+        <v>0.07323138101388338</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.168822118028558</v>
+        <v>2.168822118028586</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.8593996018463699</v>
+        <v>0.8593996018463557</v>
       </c>
       <c r="I6">
-        <v>1.462233069978055</v>
+        <v>1.462233069978097</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.945653683606395</v>
+        <v>2.945653683606281</v>
       </c>
       <c r="C7">
-        <v>1.287222810020864</v>
+        <v>1.28722281002058</v>
       </c>
       <c r="D7">
-        <v>0.07658705946140287</v>
+        <v>0.07658705946139577</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.269949326753775</v>
+        <v>2.269949326753803</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.8896816768235993</v>
+        <v>0.8896816768235922</v>
       </c>
       <c r="I7">
-        <v>1.548538968727556</v>
+        <v>1.548538968727627</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.620494970274308</v>
+        <v>3.620494970274137</v>
       </c>
       <c r="C8">
         <v>1.590055664293232</v>
       </c>
       <c r="D8">
-        <v>0.09176746186230389</v>
+        <v>0.0917674618621902</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>1.032390062402584</v>
       </c>
       <c r="I8">
-        <v>1.947064697779226</v>
+        <v>1.947064697779197</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.014199981136073</v>
+        <v>5.014199981136301</v>
       </c>
       <c r="C9">
-        <v>2.224357323549896</v>
+        <v>2.224357323550009</v>
       </c>
       <c r="D9">
-        <v>0.1238437485393646</v>
+        <v>0.123843748539251</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.765945808347965</v>
+        <v>3.765945808347908</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.356844238271933</v>
+        <v>1.356844238271918</v>
       </c>
       <c r="I9">
-        <v>2.827135819198077</v>
+        <v>2.827135819198048</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>6.111048775888662</v>
       </c>
       <c r="C10">
-        <v>2.732502936156209</v>
+        <v>2.732502936156436</v>
       </c>
       <c r="D10">
-        <v>0.1502119275122595</v>
+        <v>0.1502119275120606</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -734,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.637508777476569</v>
+        <v>1.63750877747654</v>
       </c>
       <c r="I10">
-        <v>3.582087141208831</v>
+        <v>3.582087141208817</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -760,22 +760,22 @@
         <v>2.978381032076243</v>
       </c>
       <c r="D11">
-        <v>0.1633224429677824</v>
+        <v>0.1633224429675977</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>5.057585434154475</v>
+        <v>5.057585434154561</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1.779120496085866</v>
+        <v>1.779120496085909</v>
       </c>
       <c r="I11">
-        <v>3.965828149646512</v>
+        <v>3.965828149646569</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -795,25 +795,25 @@
         <v>6.838511549564998</v>
       </c>
       <c r="C12">
-        <v>3.074269238606462</v>
+        <v>3.074269238606178</v>
       </c>
       <c r="D12">
-        <v>0.1685151508622909</v>
+        <v>0.168515150861964</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>5.226701598848109</v>
+        <v>5.226701598848081</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1.835310233241543</v>
+        <v>1.835310233241501</v>
       </c>
       <c r="I12">
-        <v>4.119097755497819</v>
+        <v>4.119097755497791</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.794506832971592</v>
+        <v>6.794506832971422</v>
       </c>
       <c r="C13">
-        <v>3.053481262262437</v>
+        <v>3.053481262262324</v>
       </c>
       <c r="D13">
-        <v>0.1673852416137578</v>
+        <v>0.1673852416133599</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>1.823083687417693</v>
       </c>
       <c r="I13">
-        <v>4.0856900137249</v>
+        <v>4.085690013724886</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.65188504408934</v>
+        <v>6.651885044089511</v>
       </c>
       <c r="C14">
-        <v>2.98620947328925</v>
+        <v>2.986209473288909</v>
       </c>
       <c r="D14">
-        <v>0.1637445793565604</v>
+        <v>0.163744579356333</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>1.78368796681778</v>
       </c>
       <c r="I14">
-        <v>3.978262606986874</v>
+        <v>3.978262606986902</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.565180771502014</v>
+        <v>6.5651807715019</v>
       </c>
       <c r="C15">
         <v>2.945389135387018</v>
       </c>
       <c r="D15">
-        <v>0.1615468024116211</v>
+        <v>0.1615468024118627</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.999642464452421</v>
+        <v>4.999642464452364</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>1.759910777777307</v>
       </c>
       <c r="I15">
-        <v>3.913575858219929</v>
+        <v>3.913575858219886</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.077384555503897</v>
+        <v>6.077384555503841</v>
       </c>
       <c r="C16">
-        <v>2.716782157808325</v>
+        <v>2.716782157808211</v>
       </c>
       <c r="D16">
-        <v>0.1493826967506209</v>
+        <v>0.1493826967504788</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1.6285784089999</v>
+        <v>1.628578408999914</v>
       </c>
       <c r="I16">
-        <v>3.557985066391979</v>
+        <v>3.557985066392035</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.785286937677029</v>
+        <v>5.785286937676972</v>
       </c>
       <c r="C17">
-        <v>2.580715966077548</v>
+        <v>2.580715966077719</v>
       </c>
       <c r="D17">
-        <v>0.1422456726389782</v>
+        <v>0.1422456726388788</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1000,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1.551924980204817</v>
+        <v>1.551924980204845</v>
       </c>
       <c r="I17">
-        <v>3.351448250754899</v>
+        <v>3.351448250754856</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.619575029122416</v>
+        <v>5.619575029122757</v>
       </c>
       <c r="C18">
-        <v>2.503790082012017</v>
+        <v>2.503790082012245</v>
       </c>
       <c r="D18">
-        <v>0.1382403267550245</v>
+        <v>0.1382403267548824</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.563833789893124</v>
+        <v>5.563833789892897</v>
       </c>
       <c r="C19">
-        <v>2.477956917625761</v>
+        <v>2.477956917625477</v>
       </c>
       <c r="D19">
-        <v>0.1368996923205117</v>
+        <v>0.1368996923206254</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>1.494811803266501</v>
       </c>
       <c r="I19">
-        <v>3.197857273901548</v>
+        <v>3.197857273901505</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.816136821671421</v>
+        <v>5.816136821671194</v>
       </c>
       <c r="C20">
-        <v>2.595058082304945</v>
+        <v>2.595058082304206</v>
       </c>
       <c r="D20">
-        <v>0.1429947058727237</v>
+        <v>0.1429947058727095</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4.392250348057019</v>
+        <v>4.392250348057047</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.559949947359499</v>
+        <v>1.559949947359527</v>
       </c>
       <c r="I20">
-        <v>3.37304613910274</v>
+        <v>3.373046139102769</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1137,16 +1137,16 @@
         <v>6.693637349929361</v>
       </c>
       <c r="C21">
-        <v>3.005886943700489</v>
+        <v>3.005886943700546</v>
       </c>
       <c r="D21">
-        <v>0.1648070444061602</v>
+        <v>0.1648070444063308</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>5.10598932277415</v>
+        <v>5.105989322774178</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>1.795184421872719</v>
       </c>
       <c r="I21">
-        <v>4.009578896936716</v>
+        <v>4.009578896936773</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.295556950019147</v>
+        <v>7.295556950018977</v>
       </c>
       <c r="C22">
-        <v>3.291090680955051</v>
+        <v>3.291090680955335</v>
       </c>
       <c r="D22">
-        <v>0.1804502649106894</v>
+        <v>0.1804502649102915</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>5.61294861137506</v>
+        <v>5.612948611375032</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1.9642907250783</v>
+        <v>1.964290725078314</v>
       </c>
       <c r="I22">
         <v>4.473748576105919</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.971227989976114</v>
+        <v>6.971227989976285</v>
       </c>
       <c r="C23">
-        <v>3.137057050306225</v>
+        <v>3.137057050305998</v>
       </c>
       <c r="D23">
-        <v>0.1719425445832314</v>
+        <v>0.1719425445835867</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>5.338007074997279</v>
+        <v>5.33800707499725</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1.872388820064728</v>
+        <v>1.872388820064714</v>
       </c>
       <c r="I23">
-        <v>4.220620129083599</v>
+        <v>4.220620129083656</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.802182755515446</v>
+        <v>5.802182755515275</v>
       </c>
       <c r="C24">
-        <v>2.5885700077244</v>
+        <v>2.588570007724854</v>
       </c>
       <c r="D24">
-        <v>0.1426557678668843</v>
+        <v>0.1426557678669553</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>4.381140336994491</v>
+        <v>4.381140336994463</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>1.556318005961074</v>
       </c>
       <c r="I24">
-        <v>3.363270752990005</v>
+        <v>3.363270752990019</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1289,16 +1289,16 @@
         <v>4.626946482180188</v>
       </c>
       <c r="C25">
-        <v>2.046877411801006</v>
+        <v>2.046877411800949</v>
       </c>
       <c r="D25">
-        <v>0.1148019855884357</v>
+        <v>0.1148019855882936</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.472461063387698</v>
+        <v>3.472461063387669</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>1.262944947887917</v>
       </c>
       <c r="I25">
-        <v>2.574360636745482</v>
+        <v>2.574360636745496</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_24/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,37 +406,40 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.807209155551789</v>
+        <v>3.774988656403536</v>
       </c>
       <c r="C2">
-        <v>1.674330105672027</v>
+        <v>1.654356323143134</v>
       </c>
       <c r="D2">
-        <v>0.09599899167552195</v>
+        <v>0.0986812390384344</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.871065432550694</v>
+        <v>2.868439288726563</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007529846749614204</v>
       </c>
       <c r="H2">
-        <v>1.073626218805046</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2.06036766359172</v>
+        <v>1.080493089019853</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2.049709489615751</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -444,37 +447,40 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.270329952534837</v>
+        <v>3.242693032630939</v>
       </c>
       <c r="C3">
-        <v>1.432577846203969</v>
+        <v>1.415372219491985</v>
       </c>
       <c r="D3">
-        <v>0.08387116648125215</v>
+        <v>0.08647675996981974</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.492539638444754</v>
+        <v>2.495574628703906</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007642471394942562</v>
       </c>
       <c r="H3">
-        <v>0.9570632496283622</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.738162576337317</v>
+        <v>0.9663569787831392</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.729545631417508</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -482,37 +488,40 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.947414930705349</v>
+        <v>2.922534592943691</v>
       </c>
       <c r="C4">
-        <v>1.288009602468946</v>
+        <v>1.272463865307316</v>
       </c>
       <c r="D4">
-        <v>0.07662649383231468</v>
+        <v>0.07918432407232245</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.271143321634497</v>
+        <v>2.277554278419842</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007712437785861725</v>
       </c>
       <c r="H4">
-        <v>0.8900405128479534</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.549557223423761</v>
+        <v>0.9007892809769231</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.542065510958807</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -520,37 +529,40 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.817207305519389</v>
+        <v>2.793441082417701</v>
       </c>
       <c r="C5">
-        <v>1.229892647324107</v>
+        <v>1.215016773281434</v>
       </c>
       <c r="D5">
-        <v>0.07371310351250315</v>
+        <v>0.0762513025513627</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.18328027990411</v>
+        <v>2.191049585552022</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007741208286996091</v>
       </c>
       <c r="H5">
-        <v>0.8637154027443117</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.474580628008113</v>
+        <v>0.8750512950049583</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.467522704526615</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -558,37 +570,40 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.795661715497261</v>
+        <v>2.772080069531512</v>
       </c>
       <c r="C6">
-        <v>1.220285743741044</v>
+        <v>1.205520792100913</v>
       </c>
       <c r="D6">
-        <v>0.07323138101388338</v>
+        <v>0.0757663100581496</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.168822118028586</v>
+        <v>2.176816124861219</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007746002652796694</v>
       </c>
       <c r="H6">
-        <v>0.8593996018463557</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.462233069978097</v>
+        <v>0.8708327114329109</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.455245865505916</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -596,37 +611,40 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.945653683606281</v>
+        <v>2.920788402232631</v>
       </c>
       <c r="C7">
-        <v>1.28722281002058</v>
+        <v>1.271686129347927</v>
       </c>
       <c r="D7">
-        <v>0.07658705946139577</v>
+        <v>0.07914462562995794</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.269949326753803</v>
+        <v>2.276378663948051</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007712824681430965</v>
       </c>
       <c r="H7">
-        <v>0.8896816768235922</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.548538968727627</v>
+        <v>0.9004383831102345</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.541053198198028</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -634,37 +652,40 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.620494970274137</v>
+        <v>3.589870430304813</v>
       </c>
       <c r="C8">
-        <v>1.590055664293232</v>
+        <v>1.571046904457205</v>
       </c>
       <c r="D8">
-        <v>0.0917674618621902</v>
+        <v>0.09442343639594952</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.737993652287713</v>
+        <v>2.737345419830632</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007568545781084331</v>
       </c>
       <c r="H8">
-        <v>1.032390062402584</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.947064697779197</v>
+        <v>1.040102994011178</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.937142064768963</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -672,37 +693,40 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.014199981136301</v>
+        <v>4.97150759604267</v>
       </c>
       <c r="C9">
-        <v>2.224357323550009</v>
+        <v>2.198018921434937</v>
       </c>
       <c r="D9">
-        <v>0.123843748539251</v>
+        <v>0.1266848144398836</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.765945808347908</v>
+        <v>3.750162528028966</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007289106999845441</v>
       </c>
       <c r="H9">
-        <v>1.356844238271918</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>2.827135819198048</v>
+        <v>1.358133038055882</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2.810936983543854</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -710,37 +734,40 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.111048775888662</v>
+        <v>6.058389130085686</v>
       </c>
       <c r="C10">
-        <v>2.732502936156436</v>
+        <v>2.700051190186173</v>
       </c>
       <c r="D10">
-        <v>0.1502119275120606</v>
+        <v>0.15317412416411</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.628807528987522</v>
+        <v>4.600212771672773</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007080585922606098</v>
       </c>
       <c r="H10">
-        <v>1.63750877747654</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>3.582087141208817</v>
+        <v>1.633450266374496</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>3.559298683712854</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -748,37 +775,40 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.635266510782913</v>
+        <v>6.57760028124062</v>
       </c>
       <c r="C11">
-        <v>2.978381032076243</v>
+        <v>2.94283709892278</v>
       </c>
       <c r="D11">
-        <v>0.1633224429675977</v>
+        <v>0.1663299952283666</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>5.057585434154561</v>
+        <v>5.022449417485291</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0006983306147556379</v>
       </c>
       <c r="H11">
-        <v>1.779120496085909</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>3.965828149646569</v>
+        <v>1.772364690337909</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>3.939162803405651</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -786,37 +816,40 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.838511549564998</v>
+        <v>6.778849523103645</v>
       </c>
       <c r="C12">
-        <v>3.074269238606178</v>
+        <v>3.037488544723033</v>
       </c>
       <c r="D12">
-        <v>0.168515150861964</v>
+        <v>0.1715372265116741</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>5.226701598848081</v>
+        <v>5.188938254092648</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006945912951541446</v>
       </c>
       <c r="H12">
-        <v>1.835310233241501</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>4.119097755497791</v>
+        <v>1.82747746453812</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.090769483190968</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -824,37 +857,40 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.794506832971422</v>
+        <v>6.735279767747613</v>
       </c>
       <c r="C13">
-        <v>3.053481262262324</v>
+        <v>3.01697030778854</v>
       </c>
       <c r="D13">
-        <v>0.1673852416133599</v>
+        <v>0.170404338719834</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>5.18994898381905</v>
+        <v>5.152759194901193</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0006953995079502943</v>
       </c>
       <c r="H13">
-        <v>1.823083687417693</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>4.085690013724886</v>
+        <v>1.815485706897633</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.057730100549477</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -862,37 +898,40 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.651885044089511</v>
+        <v>6.59405686243889</v>
       </c>
       <c r="C14">
-        <v>2.986209473288909</v>
+        <v>2.950565269191316</v>
       </c>
       <c r="D14">
-        <v>0.163744579356333</v>
+        <v>0.1667533904700917</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>5.071352779656024</v>
+        <v>5.03600398407616</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.000698024237666332</v>
       </c>
       <c r="H14">
-        <v>1.78368796681778</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>3.978262606986902</v>
+        <v>1.776844803323328</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>3.951464897445831</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -900,37 +939,40 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.5651807715019</v>
+        <v>6.508195216559898</v>
       </c>
       <c r="C15">
-        <v>2.945389135387018</v>
+        <v>2.910266465510063</v>
       </c>
       <c r="D15">
-        <v>0.1615468024118627</v>
+        <v>0.1645489135120215</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.999642464452364</v>
+        <v>4.965399933483894</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0006996239847814834</v>
       </c>
       <c r="H15">
-        <v>1.759910777777307</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>3.913575858219886</v>
+        <v>1.753522062651555</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>3.88746193154617</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -938,37 +980,40 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.077384555503841</v>
+        <v>6.025040193442237</v>
       </c>
       <c r="C16">
-        <v>2.716782157808211</v>
+        <v>2.684524650937817</v>
       </c>
       <c r="D16">
-        <v>0.1493826967504788</v>
+        <v>0.1523416468963887</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.601635186510208</v>
+        <v>4.57344998496518</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007086878528740477</v>
       </c>
       <c r="H16">
-        <v>1.628578408999914</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>3.557985066392035</v>
+        <v>1.624689528839028</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>3.535427284311396</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -976,37 +1021,40 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.785286937676972</v>
+        <v>5.735650355668042</v>
       </c>
       <c r="C17">
-        <v>2.580715966077719</v>
+        <v>2.550124312134699</v>
       </c>
       <c r="D17">
-        <v>0.1422456726388788</v>
+        <v>0.1451750217196377</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.367698176609764</v>
+        <v>4.343018824718399</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007141735588920018</v>
       </c>
       <c r="H17">
-        <v>1.551924980204845</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>3.351448250754856</v>
+        <v>1.549491738142663</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>3.330809163408063</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1014,37 +1062,40 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.619575029122757</v>
+        <v>5.571453958253926</v>
       </c>
       <c r="C18">
-        <v>2.503790082012245</v>
+        <v>2.474128963708722</v>
       </c>
       <c r="D18">
-        <v>0.1382403267548824</v>
+        <v>0.141151841486959</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>4.236441535751339</v>
+        <v>4.213715313105098</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007173075524742029</v>
       </c>
       <c r="H18">
-        <v>1.509105823852479</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>3.236280652974003</v>
+        <v>1.507486286302353</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>3.216667998164326</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1052,37 +1103,40 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.563833789892897</v>
+        <v>5.516219392519133</v>
       </c>
       <c r="C19">
-        <v>2.477956917625477</v>
+        <v>2.448606611648813</v>
       </c>
       <c r="D19">
-        <v>0.1368996923206254</v>
+        <v>0.1398050541525464</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>4.192527784834681</v>
+        <v>4.170453093273039</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007183655426533669</v>
       </c>
       <c r="H19">
-        <v>1.494811803266501</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>3.197857273901505</v>
+        <v>1.493464140429481</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>3.178580412306943</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1090,37 +1144,40 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.816136821671194</v>
+        <v>5.766216517172836</v>
       </c>
       <c r="C20">
-        <v>2.595058082304206</v>
+        <v>2.56429207587388</v>
       </c>
       <c r="D20">
-        <v>0.1429947058727095</v>
+        <v>0.1459272959284164</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4.392250348057047</v>
+        <v>4.36720462416514</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007135919219775487</v>
       </c>
       <c r="H20">
-        <v>1.559949947359527</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>3.373046139102769</v>
+        <v>1.557364288197462</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>3.352211165434554</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1128,37 +1185,40 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.693637349929361</v>
+        <v>6.635401329209571</v>
       </c>
       <c r="C21">
-        <v>3.005886943700546</v>
+        <v>2.969990161639544</v>
       </c>
       <c r="D21">
-        <v>0.1648070444063308</v>
+        <v>0.1678189638522127</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>5.105989322774178</v>
+        <v>5.070104364048916</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0006972550013304465</v>
       </c>
       <c r="H21">
-        <v>1.795184421872719</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>4.009578896936773</v>
+        <v>1.788121240751764</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>3.98244586207565</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1166,37 +1226,40 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.295556950018977</v>
+        <v>7.231274896470268</v>
       </c>
       <c r="C22">
-        <v>3.291090680955335</v>
+        <v>3.25143790574316</v>
       </c>
       <c r="D22">
-        <v>0.1804502649102915</v>
+        <v>0.1834970461324446</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>5.612948611375032</v>
+        <v>5.569060132133728</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006862381660395211</v>
       </c>
       <c r="H22">
-        <v>1.964290725078314</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>4.473748576105919</v>
+        <v>1.95396175130891</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.441294711887736</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1204,37 +1267,40 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.971227989976285</v>
+        <v>6.910244134755715</v>
       </c>
       <c r="C23">
-        <v>3.137057050305998</v>
+        <v>3.099455937569246</v>
       </c>
       <c r="D23">
-        <v>0.1719425445835867</v>
+        <v>0.1749730083740104</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>5.33800707499725</v>
+        <v>5.2984974366627</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0006921581868418411</v>
       </c>
       <c r="H23">
-        <v>1.872388820064714</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>4.220620129083656</v>
+        <v>1.863842292260003</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.191151678335885</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1242,37 +1308,40 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.802182755515275</v>
+        <v>5.752390848206232</v>
       </c>
       <c r="C24">
-        <v>2.588570007724854</v>
+        <v>2.557882909306443</v>
       </c>
       <c r="D24">
-        <v>0.1426557678669553</v>
+        <v>0.1455868951429977</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>4.381140336994463</v>
+        <v>4.356260441118195</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007138549403064473</v>
       </c>
       <c r="H24">
-        <v>1.556318005961074</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>3.363270752990019</v>
+        <v>1.553801325527047</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>3.342524573780608</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1280,42 +1349,48 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.626946482180188</v>
+        <v>4.587654161161936</v>
       </c>
       <c r="C25">
-        <v>2.046877411800949</v>
+        <v>2.022611855640832</v>
       </c>
       <c r="D25">
-        <v>0.1148019855882936</v>
+        <v>0.1175943925222356</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.472461063387669</v>
+        <v>3.460983765359828</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007364802937437631</v>
       </c>
       <c r="H25">
-        <v>1.262944947887917</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2.574360636745496</v>
+        <v>1.266049744483482</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>2.56010360755829</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_24/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.774988656403536</v>
+        <v>2.431244258411141</v>
       </c>
       <c r="C2">
-        <v>1.654356323143134</v>
+        <v>0.2493611555529185</v>
       </c>
       <c r="D2">
-        <v>0.0986812390384344</v>
+        <v>0.3761473948382701</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.868439288726563</v>
+        <v>6.631502652063148</v>
       </c>
       <c r="G2">
-        <v>0.0007529846749614204</v>
+        <v>0.0008051467569639196</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.080493089019853</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2.049709489615751</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5199531407177318</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4006722757988967</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.242693032630939</v>
+        <v>2.099540425115322</v>
       </c>
       <c r="C3">
-        <v>1.415372219491985</v>
+        <v>0.2171156359267314</v>
       </c>
       <c r="D3">
-        <v>0.08647675996981974</v>
+        <v>0.3390698596446526</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.495574628703906</v>
+        <v>5.865920006782602</v>
       </c>
       <c r="G3">
-        <v>0.0007642471394942562</v>
+        <v>0.0008162108642926057</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9663569787831392</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1.729545631417508</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4452381361170694</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3514537752456306</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.922534592943691</v>
+        <v>1.902040690469818</v>
       </c>
       <c r="C4">
-        <v>1.272463865307316</v>
+        <v>0.1978098765732028</v>
       </c>
       <c r="D4">
-        <v>0.07918432407232245</v>
+        <v>0.3168181819689835</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.277554278419842</v>
+        <v>5.407094767631691</v>
       </c>
       <c r="G4">
-        <v>0.0007712437785861725</v>
+        <v>0.0008231386958291001</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9007892809769231</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1.542065510958807</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4007092686108109</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3220813542369001</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.793441082417701</v>
+        <v>1.822905541569526</v>
       </c>
       <c r="C5">
-        <v>1.215016773281434</v>
+        <v>0.1900421088250255</v>
       </c>
       <c r="D5">
-        <v>0.0762513025513627</v>
+        <v>0.3078580511450326</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.191049585552022</v>
+        <v>5.222530556122081</v>
       </c>
       <c r="G5">
-        <v>0.0007741208286996091</v>
+        <v>0.0008259989560159152</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8750512950049583</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1.467522704526615</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3828544424513893</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3102980565311384</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.772080069531512</v>
+        <v>1.809841074655139</v>
       </c>
       <c r="C6">
-        <v>1.205520792100913</v>
+        <v>0.1887576230902539</v>
       </c>
       <c r="D6">
-        <v>0.0757663100581496</v>
+        <v>0.3063761366009743</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.176816124861219</v>
+        <v>5.192018043524286</v>
       </c>
       <c r="G6">
-        <v>0.0007746002652796694</v>
+        <v>0.0008264762318979735</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8708327114329109</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1.455245865505916</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3799059503575535</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3083519582149989</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.920788402232631</v>
+        <v>1.900968242470469</v>
       </c>
       <c r="C7">
-        <v>1.271686129347927</v>
+        <v>0.1977047452384966</v>
       </c>
       <c r="D7">
-        <v>0.07914462562995794</v>
+        <v>0.316696933807151</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.276378663948051</v>
+        <v>5.404596428494074</v>
       </c>
       <c r="G7">
-        <v>0.0007712824681430965</v>
+        <v>0.000823177115752749</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9004383831102345</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1.541053198198028</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.400467352734438</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3219217203040614</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.589870430304813</v>
+        <v>2.315462903707385</v>
       </c>
       <c r="C8">
-        <v>1.571046904457205</v>
+        <v>0.2381248428869895</v>
       </c>
       <c r="D8">
-        <v>0.09442343639594952</v>
+        <v>0.3632425792693539</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.737345419830632</v>
+        <v>6.364930285440522</v>
       </c>
       <c r="G8">
-        <v>0.0007568545781084331</v>
+        <v>0.0008089358664308129</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.040102994011178</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>1.937142064768963</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4938815985854248</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.383508549628587</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.97150759604267</v>
+        <v>3.187789436364199</v>
       </c>
       <c r="C9">
-        <v>2.198018921434937</v>
+        <v>0.3225886461915053</v>
       </c>
       <c r="D9">
-        <v>0.1266848144398836</v>
+        <v>0.4597153176779329</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.750162528028966</v>
+        <v>8.358908933862779</v>
       </c>
       <c r="G9">
-        <v>0.0007289106999845441</v>
+        <v>0.0007819048468411527</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.358133038055882</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>2.810936983543854</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6902247364791521</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.5124033010341122</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.058389130085686</v>
+        <v>3.882321328075705</v>
       </c>
       <c r="C10">
-        <v>2.700051190186173</v>
+        <v>0.3899587042800192</v>
       </c>
       <c r="D10">
-        <v>0.15317412416411</v>
+        <v>0.5355856275557755</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.600212771672773</v>
+        <v>9.92655718983454</v>
       </c>
       <c r="G10">
-        <v>0.0007080585922606098</v>
+        <v>0.0007623136111321083</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.633450266374496</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>3.559298683712854</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.8465761850206945</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.6143291394682961</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.57760028124062</v>
+        <v>4.214744249191313</v>
       </c>
       <c r="C11">
-        <v>2.94283709892278</v>
+        <v>0.4223679026449645</v>
       </c>
       <c r="D11">
-        <v>0.1663299952283666</v>
+        <v>0.571686695930822</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>5.022449417485291</v>
+        <v>10.67167988274616</v>
       </c>
       <c r="G11">
-        <v>0.0006983306147556379</v>
+        <v>0.0007533831044049013</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.772364690337909</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>3.939162803405651</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.9214670107459995</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.6628915211423703</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.778849523103645</v>
+        <v>4.343490864813816</v>
       </c>
       <c r="C12">
-        <v>3.037488544723033</v>
+        <v>0.4349576103044797</v>
       </c>
       <c r="D12">
-        <v>0.1715372265116741</v>
+        <v>0.585636971316319</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>5.188938254092648</v>
+        <v>10.95942933166805</v>
       </c>
       <c r="G12">
-        <v>0.0006945912951541446</v>
+        <v>0.0007499909107289629</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.82747746453812</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>4.090769483190968</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.9504853991727913</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.6816604532157129</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.735279767747613</v>
+        <v>4.315626591928378</v>
       </c>
       <c r="C13">
-        <v>3.01697030778854</v>
+        <v>0.4322309317961555</v>
       </c>
       <c r="D13">
-        <v>0.170404338719834</v>
+        <v>0.5826191714849926</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>5.152759194901193</v>
+        <v>10.89719106866102</v>
       </c>
       <c r="G13">
-        <v>0.0006953995079502943</v>
+        <v>0.0007507220828169063</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.815485706897633</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>4.057730100549477</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.9442043451705331</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.6776002097482348</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.59405686243889</v>
+        <v>4.225275697525944</v>
       </c>
       <c r="C14">
-        <v>2.950565269191316</v>
+        <v>0.4233968988119585</v>
       </c>
       <c r="D14">
-        <v>0.1667533904700917</v>
+        <v>0.5728284610263756</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>5.03600398407616</v>
+        <v>10.69523489042058</v>
       </c>
       <c r="G14">
-        <v>0.000698024237666332</v>
+        <v>0.0007531042847635451</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.776844803323328</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>3.951464897445831</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.9238404107354086</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.6644276409379586</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.508195216559898</v>
+        <v>4.170322678881803</v>
       </c>
       <c r="C15">
-        <v>2.910266465510063</v>
+        <v>0.4180292039048084</v>
       </c>
       <c r="D15">
-        <v>0.1645489135120215</v>
+        <v>0.5668694684587479</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.965399933483894</v>
+        <v>10.57229106943214</v>
       </c>
       <c r="G15">
-        <v>0.0006996239847814834</v>
+        <v>0.0007545618416646139</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.753522062651555</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>3.88746193154617</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.9114565949843012</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.6564105657793391</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.025040193442237</v>
+        <v>3.860968527322711</v>
       </c>
       <c r="C16">
-        <v>2.684524650937817</v>
+        <v>0.3878812946580439</v>
       </c>
       <c r="D16">
-        <v>0.1523416468963887</v>
+        <v>0.5332624514153395</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.57344998496518</v>
+        <v>9.878585705141774</v>
       </c>
       <c r="G16">
-        <v>0.0007086878528740477</v>
+        <v>0.0007628962402825845</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.624689528839028</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>3.535427284311396</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.8417671900348438</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.6112048377195975</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.735650355668042</v>
+        <v>3.675734036379879</v>
       </c>
       <c r="C17">
-        <v>2.550124312134699</v>
+        <v>0.369879213529245</v>
       </c>
       <c r="D17">
-        <v>0.1451750217196377</v>
+        <v>0.5130858048143239</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.343018824718399</v>
+        <v>9.46186074916784</v>
       </c>
       <c r="G17">
-        <v>0.0007141735588920018</v>
+        <v>0.0007679993354445558</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.549491738142663</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>3.330809163408063</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.8000561037105172</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.5840767353405312</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.571453958253926</v>
+        <v>3.570708303061167</v>
       </c>
       <c r="C18">
-        <v>2.474128963708722</v>
+        <v>0.3596862752216481</v>
       </c>
       <c r="D18">
-        <v>0.141151841486959</v>
+        <v>0.5016265612289885</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>4.213715313105098</v>
+        <v>9.225114100312794</v>
       </c>
       <c r="G18">
-        <v>0.0007173075524742029</v>
+        <v>0.0007709333134288788</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.507486286302353</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>3.216667998164326</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.7764112312454188</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.5686756246786757</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.516219392519133</v>
+        <v>3.535395196075001</v>
       </c>
       <c r="C19">
-        <v>2.448606611648813</v>
+        <v>0.3562611053930738</v>
       </c>
       <c r="D19">
-        <v>0.1398050541525464</v>
+        <v>0.497770291378572</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>4.170453093273039</v>
+        <v>9.145433940798796</v>
       </c>
       <c r="G19">
-        <v>0.0007183655426533669</v>
+        <v>0.0007719267177779</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.493464140429481</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>3.178580412306943</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.7684617342997129</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.563494055879417</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.766216517172836</v>
+        <v>3.695292344401537</v>
       </c>
       <c r="C20">
-        <v>2.56429207587388</v>
+        <v>0.3717784433318627</v>
       </c>
       <c r="D20">
-        <v>0.1459272959284164</v>
+        <v>0.5152182086821995</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4.36720462416514</v>
+        <v>9.505910716540001</v>
       </c>
       <c r="G20">
-        <v>0.0007135919219775487</v>
+        <v>0.0007674562767390716</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.557364288197462</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>3.352211165434554</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.8044597069832378</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.5869432110653605</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.635401329209571</v>
+        <v>4.251731744716096</v>
       </c>
       <c r="C21">
-        <v>2.969990161639544</v>
+        <v>0.4259824897008428</v>
       </c>
       <c r="D21">
-        <v>0.1678189638522127</v>
+        <v>0.5756961840789074</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>5.070104364048916</v>
+        <v>10.75439386188629</v>
       </c>
       <c r="G21">
-        <v>0.0006972550013304465</v>
+        <v>0.0007524049259232325</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.788121240751764</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>3.98244586207565</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.9298028588519003</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.6682858793788427</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.231274896470268</v>
+        <v>4.632403630987938</v>
       </c>
       <c r="C22">
-        <v>3.25143790574316</v>
+        <v>0.463295932087334</v>
       </c>
       <c r="D22">
-        <v>0.1834970461324446</v>
+        <v>0.6168830938839562</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>5.569060132133728</v>
+        <v>11.60352257328759</v>
       </c>
       <c r="G22">
-        <v>0.0006862381660395211</v>
+        <v>0.0007425026005495649</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.95396175130891</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4.441294711887736</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.015634768123206</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.7236983410011533</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.910244134755715</v>
+        <v>4.427485153258999</v>
       </c>
       <c r="C23">
-        <v>3.099455937569246</v>
+        <v>0.4431835706229776</v>
       </c>
       <c r="D23">
-        <v>0.1749730083740104</v>
+        <v>0.5947292184748108</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>5.2984974366627</v>
+        <v>11.14691343068654</v>
       </c>
       <c r="G23">
-        <v>0.0006921581868418411</v>
+        <v>0.0007477966156339115</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.863842292260003</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4.191151678335885</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.9694214280550284</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.6938934344595538</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.752390848206232</v>
+        <v>3.686445496793908</v>
       </c>
       <c r="C24">
-        <v>2.557882909306443</v>
+        <v>0.3709193180651624</v>
       </c>
       <c r="D24">
-        <v>0.1455868951429977</v>
+        <v>0.5142537147469</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>4.356260441118195</v>
+        <v>9.485986970697951</v>
       </c>
       <c r="G24">
-        <v>0.0007138549403064473</v>
+        <v>0.000767701792582726</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.553801325527047</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>3.342524573780608</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.8024678018172935</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.5856466740250426</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.587654161161936</v>
+        <v>2.943805260407714</v>
       </c>
       <c r="C25">
-        <v>2.022611855640832</v>
+        <v>0.298982959633463</v>
       </c>
       <c r="D25">
-        <v>0.1175943925222356</v>
+        <v>0.4328890356962063</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.460983765359828</v>
+        <v>7.804320899578727</v>
       </c>
       <c r="G25">
-        <v>0.0007364802937437631</v>
+        <v>0.0007891476840731786</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.266049744483482</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>2.56010360755829</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6353186928962273</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4764501283863467</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_24/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.431244258411141</v>
+        <v>1.184781073353548</v>
       </c>
       <c r="C2">
-        <v>0.2493611555529185</v>
+        <v>0.09737164201812476</v>
       </c>
       <c r="D2">
-        <v>0.3761473948382701</v>
+        <v>0.04286502242845813</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.631502652063148</v>
+        <v>1.353028396022012</v>
       </c>
       <c r="G2">
-        <v>0.0008051467569639196</v>
+        <v>1.077269056614441</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.7582897591979361</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.08837540675643574</v>
       </c>
       <c r="K2">
-        <v>0.5199531407177318</v>
+        <v>0.9686321751672722</v>
       </c>
       <c r="L2">
-        <v>0.4006722757988967</v>
+        <v>0.1603400833048454</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2456649812764375</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.521259447523285</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.099540425115322</v>
+        <v>1.044862634031176</v>
       </c>
       <c r="C3">
-        <v>0.2171156359267314</v>
+        <v>0.09107462531645893</v>
       </c>
       <c r="D3">
-        <v>0.3390698596446526</v>
+        <v>0.03895868109766099</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.865920006782602</v>
+        <v>1.319215015350352</v>
       </c>
       <c r="G3">
-        <v>0.0008162108642926057</v>
+        <v>1.047991888517089</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.7521736169524615</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.08969593845080759</v>
       </c>
       <c r="K3">
-        <v>0.4452381361170694</v>
+        <v>0.8433257103488927</v>
       </c>
       <c r="L3">
-        <v>0.3514537752456306</v>
+        <v>0.1487534157422132</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2194886126468205</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.573153910676339</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.902040690469818</v>
+        <v>0.9598681776131173</v>
       </c>
       <c r="C4">
-        <v>0.1978098765732028</v>
+        <v>0.08720227027220773</v>
       </c>
       <c r="D4">
-        <v>0.3168181819689835</v>
+        <v>0.0365849380183576</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.407094767631691</v>
+        <v>1.300331122063056</v>
       </c>
       <c r="G4">
-        <v>0.0008231386958291001</v>
+        <v>1.031682447746846</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.7493839414567987</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.09057312866489831</v>
       </c>
       <c r="K4">
-        <v>0.4007092686108109</v>
+        <v>0.7669896382641923</v>
       </c>
       <c r="L4">
-        <v>0.3220813542369001</v>
+        <v>0.1417902211660902</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2036255153108186</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.60654731477014</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.822905541569526</v>
+        <v>0.9254416069555589</v>
       </c>
       <c r="C5">
-        <v>0.1900421088250255</v>
+        <v>0.08562186381470127</v>
       </c>
       <c r="D5">
-        <v>0.3078580511450326</v>
+        <v>0.03562349636698769</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.222530556122081</v>
+        <v>1.293087999658638</v>
       </c>
       <c r="G5">
-        <v>0.0008259989560159152</v>
+        <v>1.025436017587438</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.7484812720310288</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.09094705282223359</v>
       </c>
       <c r="K5">
-        <v>0.3828544424513893</v>
+        <v>0.7360154330947069</v>
       </c>
       <c r="L5">
-        <v>0.3102980565311384</v>
+        <v>0.1389886866204506</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1972097718810879</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.620531783683333</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.809841074655139</v>
+        <v>0.9197371542654196</v>
       </c>
       <c r="C6">
-        <v>0.1887576230902539</v>
+        <v>0.08535926914593261</v>
       </c>
       <c r="D6">
-        <v>0.3063761366009743</v>
+        <v>0.03546419490619002</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.192018043524286</v>
+        <v>1.291912034513523</v>
       </c>
       <c r="G6">
-        <v>0.0008264762318979735</v>
+        <v>1.024422403288213</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.7483452814236671</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.09101013042582196</v>
       </c>
       <c r="K6">
-        <v>0.3799059503575535</v>
+        <v>0.7308797327765717</v>
       </c>
       <c r="L6">
-        <v>0.3083519582149989</v>
+        <v>0.1385256142888451</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1961472640025903</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.622876391541666</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.900968242470469</v>
+        <v>0.959403068053831</v>
       </c>
       <c r="C7">
-        <v>0.1977047452384966</v>
+        <v>0.08718096717467461</v>
       </c>
       <c r="D7">
-        <v>0.316696933807151</v>
+        <v>0.03657194832729971</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.404596428494074</v>
+        <v>1.300231633348552</v>
       </c>
       <c r="G7">
-        <v>0.000823177115752749</v>
+        <v>1.031596612250823</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.7493708308179663</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.09057810517675691</v>
       </c>
       <c r="K7">
-        <v>0.400467352734438</v>
+        <v>0.7665713925991611</v>
       </c>
       <c r="L7">
-        <v>0.3219217203040614</v>
+        <v>0.141752295350777</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2035387987528274</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.606734400920601</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.315462903707385</v>
+        <v>1.136334045788402</v>
       </c>
       <c r="C8">
-        <v>0.2381248428869895</v>
+        <v>0.09520111245059582</v>
       </c>
       <c r="D8">
-        <v>0.3632425792693539</v>
+        <v>0.04151275736257531</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.364930285440522</v>
+        <v>1.34096749349041</v>
       </c>
       <c r="G8">
-        <v>0.0008089358664308129</v>
+        <v>1.06681635587853</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.755975117474847</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.08881680762776512</v>
       </c>
       <c r="K8">
-        <v>0.4938815985854248</v>
+        <v>0.9252901524683637</v>
       </c>
       <c r="L8">
-        <v>0.383508549628587</v>
+        <v>0.1563124287111535</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2365934264528811</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.538829952205333</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.187789436364199</v>
+        <v>1.491585194153231</v>
       </c>
       <c r="C9">
-        <v>0.3225886461915053</v>
+        <v>0.1109250630560155</v>
       </c>
       <c r="D9">
-        <v>0.4597153176779329</v>
+        <v>0.05141554151502703</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.358908933862779</v>
+        <v>1.436707650912709</v>
       </c>
       <c r="G9">
-        <v>0.0007819048468411527</v>
+        <v>1.150038175283001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.7770054795002324</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.08590050294108131</v>
       </c>
       <c r="K9">
-        <v>0.6902247364791521</v>
+        <v>1.242204062513593</v>
       </c>
       <c r="L9">
-        <v>0.5124033010341122</v>
+        <v>0.1861588512137686</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.3032703844131746</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.418205544258434</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.882321328075705</v>
+        <v>1.759179916448346</v>
       </c>
       <c r="C10">
-        <v>0.3899587042800192</v>
+        <v>0.122541852259225</v>
       </c>
       <c r="D10">
-        <v>0.5355856275557755</v>
+        <v>0.0588480611846407</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>9.92655718983454</v>
+        <v>1.518142864519604</v>
       </c>
       <c r="G10">
-        <v>0.0007623136111321083</v>
+        <v>1.221196270849717</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.7980034179530975</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0841017032253859</v>
       </c>
       <c r="K10">
-        <v>0.8465761850206945</v>
+        <v>1.479829880804999</v>
       </c>
       <c r="L10">
-        <v>0.6143291394682961</v>
+        <v>0.2090191869506839</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3536851652130935</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.33780853494423</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.214744249191313</v>
+        <v>1.882716604008408</v>
       </c>
       <c r="C11">
-        <v>0.4223679026449645</v>
+        <v>0.127856865763377</v>
       </c>
       <c r="D11">
-        <v>0.571686695930822</v>
+        <v>0.06226980382485436</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.67167988274616</v>
+        <v>1.55794159833529</v>
       </c>
       <c r="G11">
-        <v>0.0007533831044049013</v>
+        <v>1.256075260530082</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.8089098462100281</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.08336188277553802</v>
       </c>
       <c r="K11">
-        <v>0.9214670107459995</v>
+        <v>1.589293180194886</v>
       </c>
       <c r="L11">
-        <v>0.6628915211423703</v>
+        <v>0.2196557000469852</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3770009425185208</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.303160549308245</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.343490864813816</v>
+        <v>1.929789343103266</v>
       </c>
       <c r="C12">
-        <v>0.4349576103044797</v>
+        <v>0.1298753729436868</v>
       </c>
       <c r="D12">
-        <v>0.585636971316319</v>
+        <v>0.06357193785447635</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>10.95942933166805</v>
+        <v>1.57343910321903</v>
       </c>
       <c r="G12">
-        <v>0.0007499909107289629</v>
+        <v>1.26967377486983</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.8132480838740577</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.08309336448976268</v>
       </c>
       <c r="K12">
-        <v>0.9504853991727913</v>
+        <v>1.63096911007392</v>
       </c>
       <c r="L12">
-        <v>0.6816604532157129</v>
+        <v>0.2237206297948262</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.3858912220708888</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.290330029730512</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.315626591928378</v>
+        <v>1.919637855106998</v>
       </c>
       <c r="C13">
-        <v>0.4322309317961555</v>
+        <v>0.129440367772176</v>
       </c>
       <c r="D13">
-        <v>0.5826191714849926</v>
+        <v>0.06329120640484831</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10.89719106866102</v>
+        <v>1.570081952348929</v>
       </c>
       <c r="G13">
-        <v>0.0007507220828169063</v>
+        <v>1.266727219604704</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.8123042810186405</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.08315067131167453</v>
       </c>
       <c r="K13">
-        <v>0.9442043451705331</v>
+        <v>1.621982994498381</v>
       </c>
       <c r="L13">
-        <v>0.6776002097482348</v>
+        <v>0.2228434736477709</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.3839737201281821</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.293080197601597</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.225275697525944</v>
+        <v>1.886583258986548</v>
       </c>
       <c r="C14">
-        <v>0.4233968988119585</v>
+        <v>0.1280228040518949</v>
       </c>
       <c r="D14">
-        <v>0.5728284610263756</v>
+        <v>0.06237679972687005</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.69523489042058</v>
+        <v>1.559207853980681</v>
       </c>
       <c r="G14">
-        <v>0.0007531042847635451</v>
+        <v>1.257186011166098</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.8092625019667565</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.08333955630506651</v>
       </c>
       <c r="K14">
-        <v>0.9238404107354086</v>
+        <v>1.592717214747751</v>
       </c>
       <c r="L14">
-        <v>0.6644276409379586</v>
+        <v>0.2199893624775058</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.3777310894542723</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.302099085538572</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.170322678881803</v>
+        <v>1.866375402713686</v>
       </c>
       <c r="C15">
-        <v>0.4180292039048084</v>
+        <v>0.1271553092330038</v>
       </c>
       <c r="D15">
-        <v>0.5668694684587479</v>
+        <v>0.06181754898224767</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.57229106943214</v>
+        <v>1.552603658808863</v>
       </c>
       <c r="G15">
-        <v>0.0007545618416646139</v>
+        <v>1.251393537815432</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.8074268568391574</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.08345678003787071</v>
       </c>
       <c r="K15">
-        <v>0.9114565949843012</v>
+        <v>1.574821195018018</v>
       </c>
       <c r="L15">
-        <v>0.6564105657793391</v>
+        <v>0.2182460630525469</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.3739154469035029</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.307661577654322</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.860968527322711</v>
+        <v>1.75114556024667</v>
       </c>
       <c r="C16">
-        <v>0.3878812946580439</v>
+        <v>0.1221952374952124</v>
       </c>
       <c r="D16">
-        <v>0.5332624514153395</v>
+        <v>0.0586253062125266</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.878585705141774</v>
+        <v>1.515599896937545</v>
       </c>
       <c r="G16">
-        <v>0.0007628962402825845</v>
+        <v>1.218969828903496</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.7973190369338994</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.08415166068024504</v>
       </c>
       <c r="K16">
-        <v>0.8417671900348438</v>
+        <v>1.472706039781912</v>
       </c>
       <c r="L16">
-        <v>0.6112048377195975</v>
+        <v>0.2083290908590811</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.3521696266451002</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.340112695662725</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.675734036379879</v>
+        <v>1.680940689813212</v>
       </c>
       <c r="C17">
-        <v>0.369879213529245</v>
+        <v>0.1191611883950969</v>
       </c>
       <c r="D17">
-        <v>0.5130858048143239</v>
+        <v>0.05667775775330597</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.46186074916784</v>
+        <v>1.493625592575498</v>
       </c>
       <c r="G17">
-        <v>0.0007679993354445558</v>
+        <v>1.199742016355486</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.7914743505852471</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.08459828667865565</v>
       </c>
       <c r="K17">
-        <v>0.8000561037105172</v>
+        <v>1.410430915975184</v>
       </c>
       <c r="L17">
-        <v>0.5840767353405312</v>
+        <v>0.2023081751755029</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.3389313288572282</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.360522455516204</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.570708303061167</v>
+        <v>1.640728666407171</v>
       </c>
       <c r="C18">
-        <v>0.3596862752216481</v>
+        <v>0.1174188586018587</v>
       </c>
       <c r="D18">
-        <v>0.5016265612289885</v>
+        <v>0.05556137045809351</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.225114100312794</v>
+        <v>1.481243753367565</v>
       </c>
       <c r="G18">
-        <v>0.0007709333134288788</v>
+        <v>1.18891691157657</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.7882392553567144</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.08486253681588529</v>
       </c>
       <c r="K18">
-        <v>0.7764112312454188</v>
+        <v>1.374738689811977</v>
       </c>
       <c r="L18">
-        <v>0.5686756246786757</v>
+        <v>0.1988672407148329</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.3313525530758952</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.372441958187224</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.535395196075001</v>
+        <v>1.627141469277177</v>
       </c>
       <c r="C19">
-        <v>0.3562611053930738</v>
+        <v>0.1168293703210637</v>
       </c>
       <c r="D19">
-        <v>0.497770291378572</v>
+        <v>0.05518401599256606</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.145433940798796</v>
+        <v>1.477094753370778</v>
       </c>
       <c r="G19">
-        <v>0.0007719267177779</v>
+        <v>1.1852910732742</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.787165260560414</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.08495326158015004</v>
       </c>
       <c r="K19">
-        <v>0.7684617342997129</v>
+        <v>1.362674868334921</v>
       </c>
       <c r="L19">
-        <v>0.563494055879417</v>
+        <v>0.197705913681304</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.3287924332422207</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.376508289191229</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.695292344401537</v>
+        <v>1.688396508609429</v>
       </c>
       <c r="C20">
-        <v>0.3717784433318627</v>
+        <v>0.1194838708402912</v>
       </c>
       <c r="D20">
-        <v>0.5152182086821995</v>
+        <v>0.05688468141135417</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.505910716540001</v>
+        <v>1.495937961017603</v>
       </c>
       <c r="G20">
-        <v>0.0007674562767390716</v>
+        <v>1.201764399648582</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.7920833292232174</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.08454997809521458</v>
       </c>
       <c r="K20">
-        <v>0.8044597069832378</v>
+        <v>1.417046891506402</v>
       </c>
       <c r="L20">
-        <v>0.5869432110653605</v>
+        <v>0.202946799813553</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3403368463263234</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.358331044654008</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.251731744716096</v>
+        <v>1.896283998369626</v>
       </c>
       <c r="C21">
-        <v>0.4259824897008428</v>
+        <v>0.1284390065867882</v>
       </c>
       <c r="D21">
-        <v>0.5756961840789074</v>
+        <v>0.06264520500624826</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.75439386188629</v>
+        <v>1.562390006823577</v>
       </c>
       <c r="G21">
-        <v>0.0007524049259232325</v>
+        <v>1.259977645353231</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.8101501829767415</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.08328375747447936</v>
       </c>
       <c r="K21">
-        <v>0.9298028588519003</v>
+        <v>1.601306954339691</v>
       </c>
       <c r="L21">
-        <v>0.6682858793788427</v>
+        <v>0.2208266518487818</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3795629914370124</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1.299442041573371</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.632403630987938</v>
+        <v>2.033869765970849</v>
       </c>
       <c r="C22">
-        <v>0.463295932087334</v>
+        <v>0.1343264345610606</v>
       </c>
       <c r="D22">
-        <v>0.6168830938839562</v>
+        <v>0.06644759752803964</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.60352257328759</v>
+        <v>1.608322699744647</v>
       </c>
       <c r="G22">
-        <v>0.0007425026005495649</v>
+        <v>1.300315623516113</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.823178543917976</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.08252421342566763</v>
       </c>
       <c r="K22">
-        <v>1.015634768123206</v>
+        <v>1.723055100657376</v>
       </c>
       <c r="L22">
-        <v>0.7236983410011533</v>
+        <v>0.232730049802754</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.4055589095237906</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.262651397277338</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.427485153258999</v>
+        <v>1.960269001918505</v>
       </c>
       <c r="C23">
-        <v>0.4431835706229776</v>
+        <v>0.1311805142702127</v>
       </c>
       <c r="D23">
-        <v>0.5947292184748108</v>
+        <v>0.06441455990653822</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.14691343068654</v>
+        <v>1.583567831959002</v>
       </c>
       <c r="G23">
-        <v>0.0007477966156339115</v>
+        <v>1.278566270316702</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.8161086493655034</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.08292325052509852</v>
       </c>
       <c r="K23">
-        <v>0.9694214280550284</v>
+        <v>1.657944845496957</v>
       </c>
       <c r="L23">
-        <v>0.6938934344595538</v>
+        <v>0.2263559953181726</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3916493448123148</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1.282127401064173</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.686445496793908</v>
+        <v>1.68502526908739</v>
       </c>
       <c r="C24">
-        <v>0.3709193180651624</v>
+        <v>0.1193379800303802</v>
       </c>
       <c r="D24">
-        <v>0.5142537147469</v>
+        <v>0.05679112103671713</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.485986970697951</v>
+        <v>1.494891758226601</v>
       </c>
       <c r="G24">
-        <v>0.000767701792582726</v>
+        <v>1.200849368418332</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.7918076213494913</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.08457179513705881</v>
       </c>
       <c r="K24">
-        <v>0.8024678018172935</v>
+        <v>1.414055466659903</v>
       </c>
       <c r="L24">
-        <v>0.5856466740250426</v>
+        <v>0.2026580137673051</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3397013123630757</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.359321204194735</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.943805260407714</v>
+        <v>1.394440457889772</v>
       </c>
       <c r="C25">
-        <v>0.298982959633463</v>
+        <v>0.1066651423378744</v>
       </c>
       <c r="D25">
-        <v>0.4328890356962063</v>
+        <v>0.04871105109101848</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.804320899578727</v>
+        <v>1.408968307301848</v>
       </c>
       <c r="G25">
-        <v>0.0007891476840731786</v>
+        <v>1.125871804900399</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.7703897444232695</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.08663029405052924</v>
       </c>
       <c r="K25">
-        <v>0.6353186928962273</v>
+        <v>1.155731627170582</v>
       </c>
       <c r="L25">
-        <v>0.4764501283863467</v>
+        <v>0.1779318547256423</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2850044450248177</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.449437954999347</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_24/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.184781073353548</v>
+        <v>1.104028125842603</v>
       </c>
       <c r="C2">
-        <v>0.09737164201812476</v>
+        <v>0.08797166765044295</v>
       </c>
       <c r="D2">
-        <v>0.04286502242845813</v>
+        <v>0.08489952917120291</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.353028396022012</v>
+        <v>2.656232113367636</v>
       </c>
       <c r="G2">
-        <v>1.077269056614441</v>
+        <v>1.935723986379486</v>
       </c>
       <c r="H2">
-        <v>0.7582897591979361</v>
+        <v>1.671791366903335</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08837540675643574</v>
+        <v>0.2275797636615149</v>
       </c>
       <c r="K2">
-        <v>0.9686321751672722</v>
+        <v>0.6070571432156555</v>
       </c>
       <c r="L2">
-        <v>0.1603400833048454</v>
+        <v>0.304746940193894</v>
       </c>
       <c r="M2">
-        <v>0.2456649812764375</v>
+        <v>0.2965859752951197</v>
       </c>
       <c r="N2">
-        <v>1.521259447523285</v>
+        <v>3.09847412006097</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.044862634031176</v>
+        <v>1.071856801390254</v>
       </c>
       <c r="C3">
-        <v>0.09107462531645893</v>
+        <v>0.08576388632950938</v>
       </c>
       <c r="D3">
-        <v>0.03895868109766099</v>
+        <v>0.0842236403907819</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.319215015350352</v>
+        <v>2.660963749101271</v>
       </c>
       <c r="G3">
-        <v>1.047991888517089</v>
+        <v>1.938358767601315</v>
       </c>
       <c r="H3">
-        <v>0.7521736169524615</v>
+        <v>1.677969308742206</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08969593845080759</v>
+        <v>0.2286467372366587</v>
       </c>
       <c r="K3">
-        <v>0.8433257103488927</v>
+        <v>0.57526942377811</v>
       </c>
       <c r="L3">
-        <v>0.1487534157422132</v>
+        <v>0.3032378532016509</v>
       </c>
       <c r="M3">
-        <v>0.2194886126468205</v>
+        <v>0.2911560665213138</v>
       </c>
       <c r="N3">
-        <v>1.573153910676339</v>
+        <v>3.12103516581643</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9598681776131173</v>
+        <v>1.05263721539086</v>
       </c>
       <c r="C4">
-        <v>0.08720227027220773</v>
+        <v>0.08438641722565166</v>
       </c>
       <c r="D4">
-        <v>0.0365849380183576</v>
+        <v>0.08383505374934686</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.300331122063056</v>
+        <v>2.664911076751785</v>
       </c>
       <c r="G4">
-        <v>1.031682447746846</v>
+        <v>1.940818397660834</v>
       </c>
       <c r="H4">
-        <v>0.7493839414567987</v>
+        <v>1.682329982602269</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09057312866489831</v>
+        <v>0.2293488229790892</v>
       </c>
       <c r="K4">
-        <v>0.7669896382641923</v>
+        <v>0.5560448379864056</v>
       </c>
       <c r="L4">
-        <v>0.1417902211660902</v>
+        <v>0.302422742825307</v>
       </c>
       <c r="M4">
-        <v>0.2036255153108186</v>
+        <v>0.2879562679319534</v>
       </c>
       <c r="N4">
-        <v>1.60654731477014</v>
+        <v>3.135672147332535</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9254416069555589</v>
+        <v>1.04493982934693</v>
       </c>
       <c r="C5">
-        <v>0.08562186381470127</v>
+        <v>0.08381957732726164</v>
       </c>
       <c r="D5">
-        <v>0.03562349636698769</v>
+        <v>0.08368338013033139</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.293087999658638</v>
+        <v>2.666781959650379</v>
       </c>
       <c r="G5">
-        <v>1.025436017587438</v>
+        <v>1.942032517531871</v>
       </c>
       <c r="H5">
-        <v>0.7484812720310288</v>
+        <v>1.684249835162603</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09094705282223359</v>
+        <v>0.2296467589935478</v>
       </c>
       <c r="K5">
-        <v>0.7360154330947069</v>
+        <v>0.5482847504474933</v>
       </c>
       <c r="L5">
-        <v>0.1389886866204506</v>
+        <v>0.3021186987232198</v>
       </c>
       <c r="M5">
-        <v>0.1972097718810879</v>
+        <v>0.2866861897734552</v>
       </c>
       <c r="N5">
-        <v>1.620531783683333</v>
+        <v>3.141834151025989</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9197371542654196</v>
+        <v>1.04366983879558</v>
       </c>
       <c r="C6">
-        <v>0.08535926914593261</v>
+        <v>0.08372512098255669</v>
       </c>
       <c r="D6">
-        <v>0.03546419490619002</v>
+        <v>0.08365859930566444</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.291912034513523</v>
+        <v>2.667108469607008</v>
       </c>
       <c r="G6">
-        <v>1.024422403288213</v>
+        <v>1.942246916642489</v>
       </c>
       <c r="H6">
-        <v>0.7483452814236671</v>
+        <v>1.68457725749046</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09101013042582196</v>
+        <v>0.2296969462148866</v>
       </c>
       <c r="K6">
-        <v>0.7308797327765717</v>
+        <v>0.5470006791163087</v>
       </c>
       <c r="L6">
-        <v>0.1385256142888451</v>
+        <v>0.3020699134223932</v>
       </c>
       <c r="M6">
-        <v>0.1961472640025903</v>
+        <v>0.2864773433042025</v>
       </c>
       <c r="N6">
-        <v>1.622876391541666</v>
+        <v>3.142869266453644</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.959403068053831</v>
+        <v>1.052532859432517</v>
       </c>
       <c r="C7">
-        <v>0.08718096717467461</v>
+        <v>0.08437879494362477</v>
       </c>
       <c r="D7">
-        <v>0.03657194832729971</v>
+        <v>0.08383298113434279</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.300231633348552</v>
+        <v>2.664935245668978</v>
       </c>
       <c r="G7">
-        <v>1.031596612250823</v>
+        <v>1.940833913993586</v>
       </c>
       <c r="H7">
-        <v>0.7493708308179663</v>
+        <v>1.682355295822347</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09057810517675691</v>
+        <v>0.2293527931183377</v>
       </c>
       <c r="K7">
-        <v>0.7665713925991611</v>
+        <v>0.5559398822790627</v>
       </c>
       <c r="L7">
-        <v>0.141752295350777</v>
+        <v>0.3024185284050986</v>
       </c>
       <c r="M7">
-        <v>0.2035387987528274</v>
+        <v>0.2879390019288088</v>
       </c>
       <c r="N7">
-        <v>1.606734400920601</v>
+        <v>3.135754451261676</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.136334045788402</v>
+        <v>1.092824986308813</v>
       </c>
       <c r="C8">
-        <v>0.09520111245059582</v>
+        <v>0.08721496128974593</v>
       </c>
       <c r="D8">
-        <v>0.04151275736257531</v>
+        <v>0.08466102283201593</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.34096749349041</v>
+        <v>2.657647456774939</v>
       </c>
       <c r="G8">
-        <v>1.06681635587853</v>
+        <v>1.936457790422679</v>
       </c>
       <c r="H8">
-        <v>0.755975117474847</v>
+        <v>1.673803857619333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08881680762776512</v>
+        <v>0.2279379228964231</v>
       </c>
       <c r="K8">
-        <v>0.9252901524683637</v>
+        <v>0.5960360875088782</v>
       </c>
       <c r="L8">
-        <v>0.1563124287111535</v>
+        <v>0.3042035223971737</v>
       </c>
       <c r="M8">
-        <v>0.2365934264528811</v>
+        <v>0.2946859636636034</v>
       </c>
       <c r="N8">
-        <v>1.538829952205333</v>
+        <v>3.106090407847638</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.491585194153231</v>
+        <v>1.176054239058573</v>
       </c>
       <c r="C9">
-        <v>0.1109250630560155</v>
+        <v>0.09260360142836532</v>
       </c>
       <c r="D9">
-        <v>0.05141554151502703</v>
+        <v>0.08649289005057881</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.436707650912709</v>
+        <v>2.651614531716291</v>
       </c>
       <c r="G9">
-        <v>1.150038175283001</v>
+        <v>1.934553113312418</v>
       </c>
       <c r="H9">
-        <v>0.7770054795002324</v>
+        <v>1.661529825578214</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08590050294108131</v>
+        <v>0.2255349872779515</v>
       </c>
       <c r="K9">
-        <v>1.242204062513593</v>
+        <v>0.6769798817778394</v>
       </c>
       <c r="L9">
-        <v>0.1861588512137686</v>
+        <v>0.3085849484840111</v>
       </c>
       <c r="M9">
-        <v>0.3032703844131746</v>
+        <v>0.3089770210457203</v>
       </c>
       <c r="N9">
-        <v>1.418205544258434</v>
+        <v>3.054139473129595</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.759179916448346</v>
+        <v>1.239756174500172</v>
       </c>
       <c r="C10">
-        <v>0.122541852259225</v>
+        <v>0.09645819980519832</v>
       </c>
       <c r="D10">
-        <v>0.0588480611846407</v>
+        <v>0.08796383074128755</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.518142864519604</v>
+        <v>2.652206103544657</v>
       </c>
       <c r="G10">
-        <v>1.221196270849717</v>
+        <v>1.937222876470528</v>
       </c>
       <c r="H10">
-        <v>0.7980034179530975</v>
+        <v>1.655244517861306</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0841017032253859</v>
+        <v>0.2239947529891673</v>
       </c>
       <c r="K10">
-        <v>1.479829880804999</v>
+        <v>0.7378525181954672</v>
       </c>
       <c r="L10">
-        <v>0.2090191869506839</v>
+        <v>0.312337127240724</v>
       </c>
       <c r="M10">
-        <v>0.3536851652130935</v>
+        <v>0.3201185374921991</v>
       </c>
       <c r="N10">
-        <v>1.33780853494423</v>
+        <v>3.019756968991146</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.882716604008408</v>
+        <v>1.26928714593015</v>
       </c>
       <c r="C11">
-        <v>0.127856865763377</v>
+        <v>0.09818932645012524</v>
       </c>
       <c r="D11">
-        <v>0.06226980382485436</v>
+        <v>0.08865979414333935</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.55794159833529</v>
+        <v>2.653564125565623</v>
       </c>
       <c r="G11">
-        <v>1.256075260530082</v>
+        <v>1.939320934677895</v>
       </c>
       <c r="H11">
-        <v>0.8089098462100281</v>
+        <v>1.652976880857878</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08336188277553802</v>
+        <v>0.223342677136575</v>
       </c>
       <c r="K11">
-        <v>1.589293180194886</v>
+        <v>0.7658484367845801</v>
       </c>
       <c r="L11">
-        <v>0.2196557000469852</v>
+        <v>0.3141590614596907</v>
       </c>
       <c r="M11">
-        <v>0.3770009425185208</v>
+        <v>0.3253256187073958</v>
       </c>
       <c r="N11">
-        <v>1.303160549308245</v>
+        <v>3.004936255827197</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.929789343103266</v>
+        <v>1.280548794299506</v>
       </c>
       <c r="C12">
-        <v>0.1298753729436868</v>
+        <v>0.09884165754232299</v>
       </c>
       <c r="D12">
-        <v>0.06357193785447635</v>
+        <v>0.088927160422692</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.57343910321903</v>
+        <v>2.654234744997211</v>
       </c>
       <c r="G12">
-        <v>1.26967377486983</v>
+        <v>1.940242422513222</v>
       </c>
       <c r="H12">
-        <v>0.8132480838740577</v>
+        <v>1.652203112218046</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08309336448976268</v>
+        <v>0.223102717597687</v>
       </c>
       <c r="K12">
-        <v>1.63096911007392</v>
+        <v>0.7764933066863193</v>
       </c>
       <c r="L12">
-        <v>0.2237206297948262</v>
+        <v>0.3148654452451751</v>
       </c>
       <c r="M12">
-        <v>0.3858912220708888</v>
+        <v>0.327317253979011</v>
       </c>
       <c r="N12">
-        <v>1.290330029730512</v>
+        <v>2.99944190429526</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.919637855106998</v>
+        <v>1.278119896156767</v>
       </c>
       <c r="C13">
-        <v>0.129440367772176</v>
+        <v>0.09870130901416019</v>
       </c>
       <c r="D13">
-        <v>0.06329120640484831</v>
+        <v>0.08886940900719509</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.570081952348929</v>
+        <v>2.654083364145492</v>
       </c>
       <c r="G13">
-        <v>1.266727219604704</v>
+        <v>1.94003831622183</v>
       </c>
       <c r="H13">
-        <v>0.8123042810186405</v>
+        <v>1.652365981667373</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08315067131167453</v>
+        <v>0.2231540875994185</v>
       </c>
       <c r="K13">
-        <v>1.621982994498381</v>
+        <v>0.7741988183717297</v>
       </c>
       <c r="L13">
-        <v>0.2228434736477709</v>
+        <v>0.3147125823206665</v>
       </c>
       <c r="M13">
-        <v>0.3839737201281821</v>
+        <v>0.3268874398884023</v>
       </c>
       <c r="N13">
-        <v>1.293080197601597</v>
+        <v>3.000619966043431</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.886583258986548</v>
+        <v>1.270212070236511</v>
       </c>
       <c r="C14">
-        <v>0.1280228040518949</v>
+        <v>0.09824305840729153</v>
       </c>
       <c r="D14">
-        <v>0.06237679972687005</v>
+        <v>0.08868171418201598</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.559207853980681</v>
+        <v>2.653616165268701</v>
       </c>
       <c r="G14">
-        <v>1.257186011166098</v>
+        <v>1.939394201118773</v>
       </c>
       <c r="H14">
-        <v>0.8092625019667565</v>
+        <v>1.652911520949942</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08333955630506651</v>
+        <v>0.2233227959914821</v>
       </c>
       <c r="K14">
-        <v>1.592717214747751</v>
+        <v>0.7667233285809516</v>
       </c>
       <c r="L14">
-        <v>0.2199893624775058</v>
+        <v>0.3142168467576454</v>
       </c>
       <c r="M14">
-        <v>0.3777310894542723</v>
+        <v>0.3254890751022543</v>
       </c>
       <c r="N14">
-        <v>1.302099085538572</v>
+        <v>3.004481868656121</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.866375402713686</v>
+        <v>1.265378558414426</v>
       </c>
       <c r="C15">
-        <v>0.1271553092330038</v>
+        <v>0.09796194891530519</v>
       </c>
       <c r="D15">
-        <v>0.06181754898224767</v>
+        <v>0.08856724205818267</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.552603658808863</v>
+        <v>2.653350349475446</v>
       </c>
       <c r="G15">
-        <v>1.251393537815432</v>
+        <v>1.939016199313656</v>
       </c>
       <c r="H15">
-        <v>0.8074268568391574</v>
+        <v>1.653256736818079</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08345678003787071</v>
+        <v>0.2234270415583062</v>
       </c>
       <c r="K15">
-        <v>1.574821195018018</v>
+        <v>0.7621500187706545</v>
       </c>
       <c r="L15">
-        <v>0.2182460630525469</v>
+        <v>0.3139153349961674</v>
       </c>
       <c r="M15">
-        <v>0.3739154469035029</v>
+        <v>0.3246351145876432</v>
       </c>
       <c r="N15">
-        <v>1.307661577654322</v>
+        <v>3.006862753871637</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.75114556024667</v>
+        <v>1.237837328848059</v>
       </c>
       <c r="C16">
-        <v>0.1221952374952124</v>
+        <v>0.09634461729285704</v>
       </c>
       <c r="D16">
-        <v>0.0586253062125266</v>
+        <v>0.08791888448703844</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.515599896937545</v>
+        <v>2.65213924661964</v>
       </c>
       <c r="G16">
-        <v>1.218969828903496</v>
+        <v>1.937103538171485</v>
       </c>
       <c r="H16">
-        <v>0.7973190369338994</v>
+        <v>1.655404606049302</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08415166068024504</v>
+        <v>0.2240383436996751</v>
       </c>
       <c r="K16">
-        <v>1.472706039781912</v>
+        <v>0.7360290164932621</v>
       </c>
       <c r="L16">
-        <v>0.2083290908590811</v>
+        <v>0.3122203671886581</v>
       </c>
       <c r="M16">
-        <v>0.3521696266451002</v>
+        <v>0.3197810237606333</v>
       </c>
       <c r="N16">
-        <v>1.340112695662725</v>
+        <v>3.020742039700039</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.680940689813212</v>
+        <v>1.221082823555236</v>
       </c>
       <c r="C17">
-        <v>0.1191611883950969</v>
+        <v>0.09534671594254718</v>
       </c>
       <c r="D17">
-        <v>0.05667775775330597</v>
+        <v>0.08752798202962708</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.493625592575498</v>
+        <v>2.651675015100082</v>
       </c>
       <c r="G17">
-        <v>1.199742016355486</v>
+        <v>1.936156444632516</v>
       </c>
       <c r="H17">
-        <v>0.7914743505852471</v>
+        <v>1.656873677742254</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08459828667865565</v>
+        <v>0.2244257878730664</v>
       </c>
       <c r="K17">
-        <v>1.410430915975184</v>
+        <v>0.7200823819132722</v>
       </c>
       <c r="L17">
-        <v>0.2023081751755029</v>
+        <v>0.3112099641613852</v>
       </c>
       <c r="M17">
-        <v>0.3389313288572282</v>
+        <v>0.3168386440600273</v>
       </c>
       <c r="N17">
-        <v>1.360522455516204</v>
+        <v>3.02946657318904</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.640728666407171</v>
+        <v>1.211498125852131</v>
       </c>
       <c r="C18">
-        <v>0.1174188586018587</v>
+        <v>0.09477064555614589</v>
       </c>
       <c r="D18">
-        <v>0.05556137045809351</v>
+        <v>0.08730567240503007</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.481243753367565</v>
+        <v>2.651510507998353</v>
       </c>
       <c r="G18">
-        <v>1.18891691157657</v>
+        <v>1.935694870586758</v>
       </c>
       <c r="H18">
-        <v>0.7882392553567144</v>
+        <v>1.657774339141497</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08486253681588529</v>
+        <v>0.224653209634857</v>
       </c>
       <c r="K18">
-        <v>1.374738689811977</v>
+        <v>0.7109389977000262</v>
       </c>
       <c r="L18">
-        <v>0.1988672407148329</v>
+        <v>0.3106396412406127</v>
       </c>
       <c r="M18">
-        <v>0.3313525530758952</v>
+        <v>0.3151593323222244</v>
       </c>
       <c r="N18">
-        <v>1.372441958187224</v>
+        <v>3.034561881391767</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.627141469277177</v>
+        <v>1.208261868673816</v>
       </c>
       <c r="C19">
-        <v>0.1168293703210637</v>
+        <v>0.09457523652164923</v>
       </c>
       <c r="D19">
-        <v>0.05518401599256606</v>
+        <v>0.08723083736524728</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.477094753370778</v>
+        <v>2.651472421012755</v>
       </c>
       <c r="G19">
-        <v>1.1852910732742</v>
+        <v>1.935552875694398</v>
       </c>
       <c r="H19">
-        <v>0.787165260560414</v>
+        <v>1.658088856524046</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08495326158015004</v>
+        <v>0.2247309969258797</v>
       </c>
       <c r="K19">
-        <v>1.362674868334921</v>
+        <v>0.7078481455987742</v>
       </c>
       <c r="L19">
-        <v>0.197705913681304</v>
+        <v>0.3104484031373289</v>
       </c>
       <c r="M19">
-        <v>0.3287924332422207</v>
+        <v>0.3145929943578167</v>
       </c>
       <c r="N19">
-        <v>1.376508289191229</v>
+        <v>3.036300322037654</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.688396508609429</v>
+        <v>1.222860986253949</v>
       </c>
       <c r="C20">
-        <v>0.1194838708402912</v>
+        <v>0.09545316195777787</v>
       </c>
       <c r="D20">
-        <v>0.05688468141135417</v>
+        <v>0.08756933298645464</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.495937961017603</v>
+        <v>2.6517138258736</v>
       </c>
       <c r="G20">
-        <v>1.201764399648582</v>
+        <v>1.936248657082615</v>
       </c>
       <c r="H20">
-        <v>0.7920833292232174</v>
+        <v>1.656711529784033</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08454997809521458</v>
+        <v>0.2243840705127162</v>
       </c>
       <c r="K20">
-        <v>1.417046891506402</v>
+        <v>0.7217769610208222</v>
       </c>
       <c r="L20">
-        <v>0.202946799813553</v>
+        <v>0.3113164026241719</v>
       </c>
       <c r="M20">
-        <v>0.3403368463263234</v>
+        <v>0.3171505139006996</v>
       </c>
       <c r="N20">
-        <v>1.358331044654008</v>
+        <v>3.028529843062003</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.896283998369626</v>
+        <v>1.272532653243132</v>
       </c>
       <c r="C21">
-        <v>0.1284390065867882</v>
+        <v>0.09837774477189498</v>
       </c>
       <c r="D21">
-        <v>0.06264520500624826</v>
+        <v>0.08873674132411224</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.562390006823577</v>
+        <v>2.653749150909022</v>
       </c>
       <c r="G21">
-        <v>1.259977645353231</v>
+        <v>1.939579947082137</v>
       </c>
       <c r="H21">
-        <v>0.8101501829767415</v>
+        <v>1.652748978739922</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08328375747447936</v>
+        <v>0.2232730533032736</v>
       </c>
       <c r="K21">
-        <v>1.601306954339691</v>
+        <v>0.7689178857205548</v>
       </c>
       <c r="L21">
-        <v>0.2208266518487818</v>
+        <v>0.3143620103684981</v>
       </c>
       <c r="M21">
-        <v>0.3795629914370124</v>
+        <v>0.3258992716462146</v>
       </c>
       <c r="N21">
-        <v>1.299442041573371</v>
+        <v>3.003344333559426</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.033869765970849</v>
+        <v>1.305455650285296</v>
       </c>
       <c r="C22">
-        <v>0.1343264345610606</v>
+        <v>0.1002704264071781</v>
       </c>
       <c r="D22">
-        <v>0.06644759752803964</v>
+        <v>0.08952195906235971</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.608322699744647</v>
+        <v>2.655990673763782</v>
       </c>
       <c r="G22">
-        <v>1.300315623516113</v>
+        <v>1.942497357503512</v>
       </c>
       <c r="H22">
-        <v>0.823178543917976</v>
+        <v>1.650654235756406</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.08252421342566763</v>
+        <v>0.2225875421906025</v>
       </c>
       <c r="K22">
-        <v>1.723055100657376</v>
+        <v>0.7999801295231066</v>
       </c>
       <c r="L22">
-        <v>0.232730049802754</v>
+        <v>0.316448373888278</v>
       </c>
       <c r="M22">
-        <v>0.4055589095237906</v>
+        <v>0.3317325972734935</v>
       </c>
       <c r="N22">
-        <v>1.262651397277338</v>
+        <v>2.987571544453004</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.960269001918505</v>
+        <v>1.287842149857511</v>
       </c>
       <c r="C23">
-        <v>0.1311805142702127</v>
+        <v>0.09926197627785882</v>
       </c>
       <c r="D23">
-        <v>0.06441455990653822</v>
+        <v>0.08910085010925428</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.583567831959002</v>
+        <v>2.654711016719858</v>
       </c>
       <c r="G23">
-        <v>1.278566270316702</v>
+        <v>1.940872569222762</v>
       </c>
       <c r="H23">
-        <v>0.8161086493655034</v>
+        <v>1.651726989149282</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08292325052509852</v>
+        <v>0.2229497034281245</v>
       </c>
       <c r="K23">
-        <v>1.657944845496957</v>
+        <v>0.7833786101245437</v>
       </c>
       <c r="L23">
-        <v>0.2263559953181726</v>
+        <v>0.3153260978460821</v>
       </c>
       <c r="M23">
-        <v>0.3916493448123148</v>
+        <v>0.3286087141093219</v>
       </c>
       <c r="N23">
-        <v>1.282127401064173</v>
+        <v>2.995926878682162</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.68502526908739</v>
+        <v>1.222056930304518</v>
       </c>
       <c r="C24">
-        <v>0.1193379800303802</v>
+        <v>0.09540504507767622</v>
       </c>
       <c r="D24">
-        <v>0.05679112103671713</v>
+        <v>0.08755063066113422</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.494891758226601</v>
+        <v>2.651695960575751</v>
       </c>
       <c r="G24">
-        <v>1.200849368418332</v>
+        <v>1.93620670952653</v>
       </c>
       <c r="H24">
-        <v>0.7918076213494913</v>
+        <v>1.65678466219812</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08457179513705881</v>
+        <v>0.2244029163676835</v>
       </c>
       <c r="K24">
-        <v>1.414055466659903</v>
+        <v>0.7210107653123998</v>
       </c>
       <c r="L24">
-        <v>0.2026580137673051</v>
+        <v>0.3112682488609693</v>
       </c>
       <c r="M24">
-        <v>0.3397013123630757</v>
+        <v>0.3170094792184344</v>
       </c>
       <c r="N24">
-        <v>1.359321204194735</v>
+        <v>3.028953091235813</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.394440457889772</v>
+        <v>1.153088884474727</v>
       </c>
       <c r="C25">
-        <v>0.1066651423378744</v>
+        <v>0.091164248905514</v>
       </c>
       <c r="D25">
-        <v>0.04871105109101848</v>
+        <v>0.08597522998066154</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.408968307301848</v>
+        <v>2.652363579527787</v>
       </c>
       <c r="G25">
-        <v>1.125871804900399</v>
+        <v>1.934353709341011</v>
       </c>
       <c r="H25">
-        <v>0.7703897444232695</v>
+        <v>1.664369858909623</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08663029405052924</v>
+        <v>0.2261454003727295</v>
       </c>
       <c r="K25">
-        <v>1.155731627170582</v>
+        <v>0.6548354262845635</v>
       </c>
       <c r="L25">
-        <v>0.1779318547256423</v>
+        <v>0.3073057448710941</v>
       </c>
       <c r="M25">
-        <v>0.2850044450248177</v>
+        <v>0.3049978668053868</v>
       </c>
       <c r="N25">
-        <v>1.449437954999347</v>
+        <v>3.067528313435943</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_24/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.104028125842603</v>
+        <v>1.184781073353548</v>
       </c>
       <c r="C2">
-        <v>0.08797166765044295</v>
+        <v>0.09737164201825266</v>
       </c>
       <c r="D2">
-        <v>0.08489952917120291</v>
+        <v>0.04286502242845813</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.656232113367636</v>
+        <v>1.353028396021983</v>
       </c>
       <c r="G2">
-        <v>1.935723986379486</v>
+        <v>1.077269056614441</v>
       </c>
       <c r="H2">
-        <v>1.671791366903335</v>
+        <v>0.7582897591979361</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2275797636615149</v>
+        <v>0.08837540675650324</v>
       </c>
       <c r="K2">
-        <v>0.6070571432156555</v>
+        <v>0.9686321751672722</v>
       </c>
       <c r="L2">
-        <v>0.304746940193894</v>
+        <v>0.1603400833048454</v>
       </c>
       <c r="M2">
-        <v>0.2965859752951197</v>
+        <v>0.2456649812764375</v>
       </c>
       <c r="N2">
-        <v>3.09847412006097</v>
+        <v>1.521259447523285</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.071856801390254</v>
+        <v>1.044862634031233</v>
       </c>
       <c r="C3">
-        <v>0.08576388632950938</v>
+        <v>0.09107462531633104</v>
       </c>
       <c r="D3">
-        <v>0.0842236403907819</v>
+        <v>0.03895868109771072</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.660963749101271</v>
+        <v>1.31921501535038</v>
       </c>
       <c r="G3">
-        <v>1.938358767601315</v>
+        <v>1.047991888517046</v>
       </c>
       <c r="H3">
-        <v>1.677969308742206</v>
+        <v>0.7521736169524758</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2286467372366587</v>
+        <v>0.08969593845084489</v>
       </c>
       <c r="K3">
-        <v>0.57526942377811</v>
+        <v>0.8433257103488643</v>
       </c>
       <c r="L3">
-        <v>0.3032378532016509</v>
+        <v>0.1487534157421635</v>
       </c>
       <c r="M3">
-        <v>0.2911560665213138</v>
+        <v>0.2194886126468205</v>
       </c>
       <c r="N3">
-        <v>3.12103516581643</v>
+        <v>1.573153910676325</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05263721539086</v>
+        <v>0.9598681776128899</v>
       </c>
       <c r="C4">
-        <v>0.08438641722565166</v>
+        <v>0.08720227027207983</v>
       </c>
       <c r="D4">
-        <v>0.08383505374934686</v>
+        <v>0.03658493801830076</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.664911076751785</v>
+        <v>1.300331122063028</v>
       </c>
       <c r="G4">
-        <v>1.940818397660834</v>
+        <v>1.031682447746874</v>
       </c>
       <c r="H4">
-        <v>1.682329982602269</v>
+        <v>0.7493839414567844</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2293488229790892</v>
+        <v>0.09057312866491074</v>
       </c>
       <c r="K4">
-        <v>0.5560448379864056</v>
+        <v>0.7669896382641923</v>
       </c>
       <c r="L4">
-        <v>0.302422742825307</v>
+        <v>0.1417902211660831</v>
       </c>
       <c r="M4">
-        <v>0.2879562679319534</v>
+        <v>0.2036255153108151</v>
       </c>
       <c r="N4">
-        <v>3.135672147332535</v>
+        <v>1.606547314770133</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.04493982934693</v>
+        <v>0.9254416069554168</v>
       </c>
       <c r="C5">
-        <v>0.08381957732726164</v>
+        <v>0.08562186381432468</v>
       </c>
       <c r="D5">
-        <v>0.08368338013033139</v>
+        <v>0.03562349636684559</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.666781959650379</v>
+        <v>1.293087999658646</v>
       </c>
       <c r="G5">
-        <v>1.942032517531871</v>
+        <v>1.025436017587467</v>
       </c>
       <c r="H5">
-        <v>1.684249835162603</v>
+        <v>0.7484812720309293</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2296467589935478</v>
+        <v>0.09094705282231352</v>
       </c>
       <c r="K5">
-        <v>0.5482847504474933</v>
+        <v>0.7360154330947637</v>
       </c>
       <c r="L5">
-        <v>0.3021186987232198</v>
+        <v>0.1389886866205003</v>
       </c>
       <c r="M5">
-        <v>0.2866861897734552</v>
+        <v>0.1972097718810915</v>
       </c>
       <c r="N5">
-        <v>3.141834151025989</v>
+        <v>1.62053178368334</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.04366983879558</v>
+        <v>0.9197371542654196</v>
       </c>
       <c r="C6">
-        <v>0.08372512098255669</v>
+        <v>0.08535926914615288</v>
       </c>
       <c r="D6">
-        <v>0.08365859930566444</v>
+        <v>0.03546419490601238</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.667108469607008</v>
+        <v>1.291912034513537</v>
       </c>
       <c r="G6">
-        <v>1.942246916642489</v>
+        <v>1.024422403288241</v>
       </c>
       <c r="H6">
-        <v>1.68457725749046</v>
+        <v>0.7483452814236671</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2296969462148866</v>
+        <v>0.09101013042592498</v>
       </c>
       <c r="K6">
-        <v>0.5470006791163087</v>
+        <v>0.7308797327765433</v>
       </c>
       <c r="L6">
-        <v>0.3020699134223932</v>
+        <v>0.1385256142889233</v>
       </c>
       <c r="M6">
-        <v>0.2864773433042025</v>
+        <v>0.1961472640025939</v>
       </c>
       <c r="N6">
-        <v>3.142869266453644</v>
+        <v>1.622876391541674</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.052532859432517</v>
+        <v>0.9594030680537458</v>
       </c>
       <c r="C7">
-        <v>0.08437879494362477</v>
+        <v>0.08718096717442592</v>
       </c>
       <c r="D7">
-        <v>0.08383298113434279</v>
+        <v>0.03657194832718602</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.664935245668978</v>
+        <v>1.300231633348552</v>
       </c>
       <c r="G7">
-        <v>1.940833913993586</v>
+        <v>1.031596612250766</v>
       </c>
       <c r="H7">
-        <v>1.682355295822347</v>
+        <v>0.7493708308179663</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2293527931183377</v>
+        <v>0.09057810517679066</v>
       </c>
       <c r="K7">
-        <v>0.5559398822790627</v>
+        <v>0.7665713925991042</v>
       </c>
       <c r="L7">
-        <v>0.3024185284050986</v>
+        <v>0.141752295350706</v>
       </c>
       <c r="M7">
-        <v>0.2879390019288088</v>
+        <v>0.2035387987528274</v>
       </c>
       <c r="N7">
-        <v>3.135754451261676</v>
+        <v>1.606734400920615</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.092824986308813</v>
+        <v>1.136334045788516</v>
       </c>
       <c r="C8">
-        <v>0.08721496128974593</v>
+        <v>0.09520111245083029</v>
       </c>
       <c r="D8">
-        <v>0.08466102283201593</v>
+        <v>0.04151275736257531</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.657647456774939</v>
+        <v>1.340967493490382</v>
       </c>
       <c r="G8">
-        <v>1.936457790422679</v>
+        <v>1.066816355878487</v>
       </c>
       <c r="H8">
-        <v>1.673803857619333</v>
+        <v>0.7559751174748186</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2279379228964231</v>
+        <v>0.08881680762777577</v>
       </c>
       <c r="K8">
-        <v>0.5960360875088782</v>
+        <v>0.9252901524684205</v>
       </c>
       <c r="L8">
-        <v>0.3042035223971737</v>
+        <v>0.1563124287110966</v>
       </c>
       <c r="M8">
-        <v>0.2946859636636034</v>
+        <v>0.2365934264528633</v>
       </c>
       <c r="N8">
-        <v>3.106090407847638</v>
+        <v>1.538829952205312</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.176054239058573</v>
+        <v>1.491585194153203</v>
       </c>
       <c r="C9">
-        <v>0.09260360142836532</v>
+        <v>0.1109250630558947</v>
       </c>
       <c r="D9">
-        <v>0.08649289005057881</v>
+        <v>0.0514155415151123</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.651614531716291</v>
+        <v>1.436707650912666</v>
       </c>
       <c r="G9">
-        <v>1.934553113312418</v>
+        <v>1.150038175282987</v>
       </c>
       <c r="H9">
-        <v>1.661529825578214</v>
+        <v>0.7770054795001187</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2255349872779515</v>
+        <v>0.0859005029410902</v>
       </c>
       <c r="K9">
-        <v>0.6769798817778394</v>
+        <v>1.24220406251365</v>
       </c>
       <c r="L9">
-        <v>0.3085849484840111</v>
+        <v>0.1861588512137402</v>
       </c>
       <c r="M9">
-        <v>0.3089770210457203</v>
+        <v>0.3032703844131603</v>
       </c>
       <c r="N9">
-        <v>3.054139473129595</v>
+        <v>1.418205544258413</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.239756174500172</v>
+        <v>1.759179916448318</v>
       </c>
       <c r="C10">
-        <v>0.09645819980519832</v>
+        <v>0.1225418522592179</v>
       </c>
       <c r="D10">
-        <v>0.08796383074128755</v>
+        <v>0.05884806118432095</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.652206103544657</v>
+        <v>1.518142864519589</v>
       </c>
       <c r="G10">
-        <v>1.937222876470528</v>
+        <v>1.221196270849703</v>
       </c>
       <c r="H10">
-        <v>1.655244517861306</v>
+        <v>0.7980034179530833</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2239947529891673</v>
+        <v>0.08410170322551735</v>
       </c>
       <c r="K10">
-        <v>0.7378525181954672</v>
+        <v>1.479829880804971</v>
       </c>
       <c r="L10">
-        <v>0.312337127240724</v>
+        <v>0.2090191869506839</v>
       </c>
       <c r="M10">
-        <v>0.3201185374921991</v>
+        <v>0.3536851652130935</v>
       </c>
       <c r="N10">
-        <v>3.019756968991146</v>
+        <v>1.337808534944216</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.26928714593015</v>
+        <v>1.882716604008323</v>
       </c>
       <c r="C11">
-        <v>0.09818932645012524</v>
+        <v>0.127856865763377</v>
       </c>
       <c r="D11">
-        <v>0.08865979414333935</v>
+        <v>0.06226980382488279</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.653564125565623</v>
+        <v>1.557941598335276</v>
       </c>
       <c r="G11">
-        <v>1.939320934677895</v>
+        <v>1.25607526053011</v>
       </c>
       <c r="H11">
-        <v>1.652976880857878</v>
+        <v>0.8089098462099003</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.223342677136575</v>
+        <v>0.08336188277558776</v>
       </c>
       <c r="K11">
-        <v>0.7658484367845801</v>
+        <v>1.589293180194858</v>
       </c>
       <c r="L11">
-        <v>0.3141590614596907</v>
+        <v>0.2196557000468999</v>
       </c>
       <c r="M11">
-        <v>0.3253256187073958</v>
+        <v>0.3770009425185208</v>
       </c>
       <c r="N11">
-        <v>3.004936255827197</v>
+        <v>1.303160549308217</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.280548794299506</v>
+        <v>1.929789343103096</v>
       </c>
       <c r="C12">
-        <v>0.09884165754232299</v>
+        <v>0.129875372943701</v>
       </c>
       <c r="D12">
-        <v>0.088927160422692</v>
+        <v>0.06357193785447635</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.654234744997211</v>
+        <v>1.57343910321903</v>
       </c>
       <c r="G12">
-        <v>1.940242422513222</v>
+        <v>1.26967377486983</v>
       </c>
       <c r="H12">
-        <v>1.652203112218046</v>
+        <v>0.8132480838740577</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.223102717597687</v>
+        <v>0.08309336448972715</v>
       </c>
       <c r="K12">
-        <v>0.7764933066863193</v>
+        <v>1.630969110074062</v>
       </c>
       <c r="L12">
-        <v>0.3148654452451751</v>
+        <v>0.223720629794812</v>
       </c>
       <c r="M12">
-        <v>0.327317253979011</v>
+        <v>0.385891222070903</v>
       </c>
       <c r="N12">
-        <v>2.99944190429526</v>
+        <v>1.290330029730519</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.278119896156767</v>
+        <v>1.91963785510697</v>
       </c>
       <c r="C13">
-        <v>0.09870130901416019</v>
+        <v>0.1294403677720481</v>
       </c>
       <c r="D13">
-        <v>0.08886940900719509</v>
+        <v>0.06329120640460673</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.654083364145492</v>
+        <v>1.570081952348929</v>
       </c>
       <c r="G13">
-        <v>1.94003831622183</v>
+        <v>1.266727219604746</v>
       </c>
       <c r="H13">
-        <v>1.652365981667373</v>
+        <v>0.8123042810186405</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2231540875994185</v>
+        <v>0.08315067131162124</v>
       </c>
       <c r="K13">
-        <v>0.7741988183717297</v>
+        <v>1.621982994498381</v>
       </c>
       <c r="L13">
-        <v>0.3147125823206665</v>
+        <v>0.2228434736476999</v>
       </c>
       <c r="M13">
-        <v>0.3268874398884023</v>
+        <v>0.3839737201281892</v>
       </c>
       <c r="N13">
-        <v>3.000619966043431</v>
+        <v>1.293080197601647</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.270212070236511</v>
+        <v>1.886583258986832</v>
       </c>
       <c r="C14">
-        <v>0.09824305840729153</v>
+        <v>0.128022804051767</v>
       </c>
       <c r="D14">
-        <v>0.08868171418201598</v>
+        <v>0.06237679972683452</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.653616165268701</v>
+        <v>1.559207853980709</v>
       </c>
       <c r="G14">
-        <v>1.939394201118773</v>
+        <v>1.257186011166141</v>
       </c>
       <c r="H14">
-        <v>1.652911520949942</v>
+        <v>0.8092625019667423</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2233227959914821</v>
+        <v>0.08333955630510204</v>
       </c>
       <c r="K14">
-        <v>0.7667233285809516</v>
+        <v>1.592717214747722</v>
       </c>
       <c r="L14">
-        <v>0.3142168467576454</v>
+        <v>0.2199893624774774</v>
       </c>
       <c r="M14">
-        <v>0.3254890751022543</v>
+        <v>0.3777310894542723</v>
       </c>
       <c r="N14">
-        <v>3.004481868656121</v>
+        <v>1.302099085538529</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.265378558414426</v>
+        <v>1.866375402713544</v>
       </c>
       <c r="C15">
-        <v>0.09796194891530519</v>
+        <v>0.1271553092328617</v>
       </c>
       <c r="D15">
-        <v>0.08856724205818267</v>
+        <v>0.06181754898221214</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.653350349475446</v>
+        <v>1.552603658808849</v>
       </c>
       <c r="G15">
-        <v>1.939016199313656</v>
+        <v>1.251393537815446</v>
       </c>
       <c r="H15">
-        <v>1.653256736818079</v>
+        <v>0.8074268568391574</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2234270415583062</v>
+        <v>0.08345678003782808</v>
       </c>
       <c r="K15">
-        <v>0.7621500187706545</v>
+        <v>1.574821195017989</v>
       </c>
       <c r="L15">
-        <v>0.3139153349961674</v>
+        <v>0.2182460630525895</v>
       </c>
       <c r="M15">
-        <v>0.3246351145876432</v>
+        <v>0.3739154469034958</v>
       </c>
       <c r="N15">
-        <v>3.006862753871637</v>
+        <v>1.307661577654372</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.237837328848059</v>
+        <v>1.75114556024667</v>
       </c>
       <c r="C16">
-        <v>0.09634461729285704</v>
+        <v>0.1221952374953617</v>
       </c>
       <c r="D16">
-        <v>0.08791888448703844</v>
+        <v>0.0586253062125266</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.65213924661964</v>
+        <v>1.515599896937516</v>
       </c>
       <c r="G16">
-        <v>1.937103538171485</v>
+        <v>1.218969828903525</v>
       </c>
       <c r="H16">
-        <v>1.655404606049302</v>
+        <v>0.7973190369338994</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2240383436996751</v>
+        <v>0.08415166068028768</v>
       </c>
       <c r="K16">
-        <v>0.7360290164932621</v>
+        <v>1.472706039781855</v>
       </c>
       <c r="L16">
-        <v>0.3122203671886581</v>
+        <v>0.2083290908590101</v>
       </c>
       <c r="M16">
-        <v>0.3197810237606333</v>
+        <v>0.3521696266451002</v>
       </c>
       <c r="N16">
-        <v>3.020742039700039</v>
+        <v>1.340112695662746</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.221082823555236</v>
+        <v>1.680940689813411</v>
       </c>
       <c r="C17">
-        <v>0.09534671594254718</v>
+        <v>0.1191611883950898</v>
       </c>
       <c r="D17">
-        <v>0.08752798202962708</v>
+        <v>0.05667775775322781</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.651675015100082</v>
+        <v>1.493625592575498</v>
       </c>
       <c r="G17">
-        <v>1.936156444632516</v>
+        <v>1.199742016355486</v>
       </c>
       <c r="H17">
-        <v>1.656873677742254</v>
+        <v>0.7914743505851618</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2244257878730664</v>
+        <v>0.08459828667870894</v>
       </c>
       <c r="K17">
-        <v>0.7200823819132722</v>
+        <v>1.410430915975184</v>
       </c>
       <c r="L17">
-        <v>0.3112099641613852</v>
+        <v>0.2023081751755598</v>
       </c>
       <c r="M17">
-        <v>0.3168386440600273</v>
+        <v>0.3389313288572282</v>
       </c>
       <c r="N17">
-        <v>3.02946657318904</v>
+        <v>1.36052245551619</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.211498125852131</v>
+        <v>1.640728666407313</v>
       </c>
       <c r="C18">
-        <v>0.09477064555614589</v>
+        <v>0.1174188586018658</v>
       </c>
       <c r="D18">
-        <v>0.08730567240503007</v>
+        <v>0.05556137045817167</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.651510507998353</v>
+        <v>1.481243753367551</v>
       </c>
       <c r="G18">
-        <v>1.935694870586758</v>
+        <v>1.188916911576456</v>
       </c>
       <c r="H18">
-        <v>1.657774339141497</v>
+        <v>0.7882392553567428</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.224653209634857</v>
+        <v>0.08486253681580003</v>
       </c>
       <c r="K18">
-        <v>0.7109389977000262</v>
+        <v>1.374738689812006</v>
       </c>
       <c r="L18">
-        <v>0.3106396412406127</v>
+        <v>0.1988672407148755</v>
       </c>
       <c r="M18">
-        <v>0.3151593323222244</v>
+        <v>0.3313525530758952</v>
       </c>
       <c r="N18">
-        <v>3.034561881391767</v>
+        <v>1.372441958187288</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.208261868673816</v>
+        <v>1.627141469277234</v>
       </c>
       <c r="C19">
-        <v>0.09457523652164923</v>
+        <v>0.1168293703211845</v>
       </c>
       <c r="D19">
-        <v>0.08723083736524728</v>
+        <v>0.05518401599255895</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.651472421012755</v>
+        <v>1.477094753370793</v>
       </c>
       <c r="G19">
-        <v>1.935552875694398</v>
+        <v>1.185291073274243</v>
       </c>
       <c r="H19">
-        <v>1.658088856524046</v>
+        <v>0.787165260560414</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2247309969258797</v>
+        <v>0.08495326158013583</v>
       </c>
       <c r="K19">
-        <v>0.7078481455987742</v>
+        <v>1.362674868334807</v>
       </c>
       <c r="L19">
-        <v>0.3104484031373289</v>
+        <v>0.1977059136812755</v>
       </c>
       <c r="M19">
-        <v>0.3145929943578167</v>
+        <v>0.3287924332422207</v>
       </c>
       <c r="N19">
-        <v>3.036300322037654</v>
+        <v>1.376508289191285</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.222860986253949</v>
+        <v>1.688396508609458</v>
       </c>
       <c r="C20">
-        <v>0.09545316195777787</v>
+        <v>0.1194838708401491</v>
       </c>
       <c r="D20">
-        <v>0.08756933298645464</v>
+        <v>0.05688468141148206</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.6517138258736</v>
+        <v>1.495937961017603</v>
       </c>
       <c r="G20">
-        <v>1.936248657082615</v>
+        <v>1.201764399648596</v>
       </c>
       <c r="H20">
-        <v>1.656711529784033</v>
+        <v>0.7920833292231038</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2243840705127162</v>
+        <v>0.08454997809521458</v>
       </c>
       <c r="K20">
-        <v>0.7217769610208222</v>
+        <v>1.417046891506402</v>
       </c>
       <c r="L20">
-        <v>0.3113164026241719</v>
+        <v>0.2029467998134962</v>
       </c>
       <c r="M20">
-        <v>0.3171505139006996</v>
+        <v>0.3403368463263448</v>
       </c>
       <c r="N20">
-        <v>3.028529843062003</v>
+        <v>1.358331044654001</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.272532653243132</v>
+        <v>1.896283998369711</v>
       </c>
       <c r="C21">
-        <v>0.09837774477189498</v>
+        <v>0.128439006587044</v>
       </c>
       <c r="D21">
-        <v>0.08873674132411224</v>
+        <v>0.06264520500635484</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.653749150909022</v>
+        <v>1.562390006823563</v>
       </c>
       <c r="G21">
-        <v>1.939579947082137</v>
+        <v>1.259977645353217</v>
       </c>
       <c r="H21">
-        <v>1.652748978739922</v>
+        <v>0.8101501829767415</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2232730533032736</v>
+        <v>0.08328375747457528</v>
       </c>
       <c r="K21">
-        <v>0.7689178857205548</v>
+        <v>1.601306954339663</v>
       </c>
       <c r="L21">
-        <v>0.3143620103684981</v>
+        <v>0.220826651848725</v>
       </c>
       <c r="M21">
-        <v>0.3258992716462146</v>
+        <v>0.3795629914370053</v>
       </c>
       <c r="N21">
-        <v>3.003344333559426</v>
+        <v>1.299442041573393</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.305455650285296</v>
+        <v>2.033869765970735</v>
       </c>
       <c r="C22">
-        <v>0.1002704264071781</v>
+        <v>0.1343264345610748</v>
       </c>
       <c r="D22">
-        <v>0.08952195906235971</v>
+        <v>0.06644759752832385</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.655990673763782</v>
+        <v>1.608322699744633</v>
       </c>
       <c r="G22">
-        <v>1.942497357503512</v>
+        <v>1.300315623516113</v>
       </c>
       <c r="H22">
-        <v>1.650654235756406</v>
+        <v>0.8231785439180044</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2225875421906025</v>
+        <v>0.08252421342567828</v>
       </c>
       <c r="K22">
-        <v>0.7999801295231066</v>
+        <v>1.723055100657461</v>
       </c>
       <c r="L22">
-        <v>0.316448373888278</v>
+        <v>0.2327300498028393</v>
       </c>
       <c r="M22">
-        <v>0.3317325972734935</v>
+        <v>0.4055589095237693</v>
       </c>
       <c r="N22">
-        <v>2.987571544453004</v>
+        <v>1.262651397277324</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.287842149857511</v>
+        <v>1.960269001918675</v>
       </c>
       <c r="C23">
-        <v>0.09926197627785882</v>
+        <v>0.1311805142704401</v>
       </c>
       <c r="D23">
-        <v>0.08910085010925428</v>
+        <v>0.06441455990645295</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.654711016719858</v>
+        <v>1.583567831958987</v>
       </c>
       <c r="G23">
-        <v>1.940872569222762</v>
+        <v>1.27856627031673</v>
       </c>
       <c r="H23">
-        <v>1.651726989149282</v>
+        <v>0.8161086493654892</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2229497034281245</v>
+        <v>0.08292325052518734</v>
       </c>
       <c r="K23">
-        <v>0.7833786101245437</v>
+        <v>1.657944845497099</v>
       </c>
       <c r="L23">
-        <v>0.3153260978460821</v>
+        <v>0.2263559953182011</v>
       </c>
       <c r="M23">
-        <v>0.3286087141093219</v>
+        <v>0.3916493448123219</v>
       </c>
       <c r="N23">
-        <v>2.995926878682162</v>
+        <v>1.28212740106418</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.222056930304518</v>
+        <v>1.68502526908739</v>
       </c>
       <c r="C24">
-        <v>0.09540504507767622</v>
+        <v>0.119337980030167</v>
       </c>
       <c r="D24">
-        <v>0.08755063066113422</v>
+        <v>0.0567911210366816</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.651695960575751</v>
+        <v>1.494891758226601</v>
       </c>
       <c r="G24">
-        <v>1.93620670952653</v>
+        <v>1.200849368418275</v>
       </c>
       <c r="H24">
-        <v>1.65678466219812</v>
+        <v>0.7918076213494487</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2244029163676835</v>
+        <v>0.0845717951370375</v>
       </c>
       <c r="K24">
-        <v>0.7210107653123998</v>
+        <v>1.414055466659846</v>
       </c>
       <c r="L24">
-        <v>0.3112682488609693</v>
+        <v>0.2026580137672767</v>
       </c>
       <c r="M24">
-        <v>0.3170094792184344</v>
+        <v>0.3397013123630614</v>
       </c>
       <c r="N24">
-        <v>3.028953091235813</v>
+        <v>1.359321204194707</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.153088884474727</v>
+        <v>1.394440457889885</v>
       </c>
       <c r="C25">
-        <v>0.091164248905514</v>
+        <v>0.1066651423378744</v>
       </c>
       <c r="D25">
-        <v>0.08597522998066154</v>
+        <v>0.04871105109120322</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.652363579527787</v>
+        <v>1.408968307301848</v>
       </c>
       <c r="G25">
-        <v>1.934353709341011</v>
+        <v>1.125871804900456</v>
       </c>
       <c r="H25">
-        <v>1.664369858909623</v>
+        <v>0.7703897444231558</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2261454003727295</v>
+        <v>0.08663029405053102</v>
       </c>
       <c r="K25">
-        <v>0.6548354262845635</v>
+        <v>1.155731627170582</v>
       </c>
       <c r="L25">
-        <v>0.3073057448710941</v>
+        <v>0.1779318547255855</v>
       </c>
       <c r="M25">
-        <v>0.3049978668053868</v>
+        <v>0.2850044450248319</v>
       </c>
       <c r="N25">
-        <v>3.067528313435943</v>
+        <v>1.449437954999404</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_24/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.184781073353548</v>
+        <v>1.10931328249967</v>
       </c>
       <c r="C2">
-        <v>0.09737164201825266</v>
+        <v>0.1275378965407299</v>
       </c>
       <c r="D2">
-        <v>0.04286502242845813</v>
+        <v>0.06053263789813812</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.353028396021983</v>
+        <v>0.9210554960263835</v>
       </c>
       <c r="G2">
-        <v>1.077269056614441</v>
+        <v>0.8574926234512503</v>
       </c>
       <c r="H2">
-        <v>0.7582897591979361</v>
+        <v>0.005046298410882</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.007869569094252959</v>
       </c>
       <c r="J2">
-        <v>0.08837540675650324</v>
+        <v>0.6064806988977125</v>
       </c>
       <c r="K2">
-        <v>0.9686321751672722</v>
+        <v>0.708246648561925</v>
       </c>
       <c r="L2">
-        <v>0.1603400833048454</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2456649812764375</v>
+        <v>0.9658245614833163</v>
       </c>
       <c r="N2">
-        <v>1.521259447523285</v>
+        <v>0.4070824654921665</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.044862634031233</v>
+        <v>0.9655295428849513</v>
       </c>
       <c r="C3">
-        <v>0.09107462531633104</v>
+        <v>0.1161153989846255</v>
       </c>
       <c r="D3">
-        <v>0.03895868109771072</v>
+        <v>0.05743018340611172</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.31921501535038</v>
+        <v>0.8658172022040489</v>
       </c>
       <c r="G3">
-        <v>1.047991888517046</v>
+        <v>0.8096396780306065</v>
       </c>
       <c r="H3">
-        <v>0.7521736169524758</v>
+        <v>0.00719530272028418</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01063768266465459</v>
       </c>
       <c r="J3">
-        <v>0.08969593845084489</v>
+        <v>0.5885446929013227</v>
       </c>
       <c r="K3">
-        <v>0.8433257103488643</v>
+        <v>0.6833587258159142</v>
       </c>
       <c r="L3">
-        <v>0.1487534157421635</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2194886126468205</v>
+        <v>0.8413122725596054</v>
       </c>
       <c r="N3">
-        <v>1.573153910676325</v>
+        <v>0.3560305394560714</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9598681776128899</v>
+        <v>0.8771264269737742</v>
       </c>
       <c r="C4">
-        <v>0.08720227027207983</v>
+        <v>0.1091756145404545</v>
       </c>
       <c r="D4">
-        <v>0.03658493801830076</v>
+        <v>0.05551178512952148</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.300331122063028</v>
+        <v>0.8322878769669799</v>
       </c>
       <c r="G4">
-        <v>1.031682447746874</v>
+        <v>0.7805226697619787</v>
       </c>
       <c r="H4">
-        <v>0.7493839414567844</v>
+        <v>0.008760605555340556</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01265559501546454</v>
       </c>
       <c r="J4">
-        <v>0.09057312866491074</v>
+        <v>0.5777357599449289</v>
       </c>
       <c r="K4">
-        <v>0.7669896382641923</v>
+        <v>0.6680932510952502</v>
       </c>
       <c r="L4">
-        <v>0.1417902211660831</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2036255153108151</v>
+        <v>0.7650197520710265</v>
       </c>
       <c r="N4">
-        <v>1.606547314770133</v>
+        <v>0.3246988487684206</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9254416069554168</v>
+        <v>0.8407482675414997</v>
       </c>
       <c r="C5">
-        <v>0.08562186381432468</v>
+        <v>0.1065130337712645</v>
       </c>
       <c r="D5">
-        <v>0.03562349636684559</v>
+        <v>0.05478216025589688</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.293087999658646</v>
+        <v>0.8175204493843964</v>
       </c>
       <c r="G5">
-        <v>1.025436017587467</v>
+        <v>0.767395258674199</v>
       </c>
       <c r="H5">
-        <v>0.7484812720309293</v>
+        <v>0.009462732605126228</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01364336654059972</v>
       </c>
       <c r="J5">
-        <v>0.09094705282231352</v>
+        <v>0.5726985983769453</v>
       </c>
       <c r="K5">
-        <v>0.7360154330947637</v>
+        <v>0.660814972926751</v>
       </c>
       <c r="L5">
-        <v>0.1389886866205003</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1972097718810915</v>
+        <v>0.7342808116307822</v>
       </c>
       <c r="N5">
-        <v>1.62053178368334</v>
+        <v>0.3119177699809086</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9197371542654196</v>
+        <v>0.8343181660465291</v>
       </c>
       <c r="C6">
-        <v>0.08535926914615288</v>
+        <v>0.1062578568429657</v>
       </c>
       <c r="D6">
-        <v>0.03546419490601238</v>
+        <v>0.05472950009529498</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.291912034513537</v>
+        <v>0.8136157850581256</v>
       </c>
       <c r="G6">
-        <v>1.024422403288241</v>
+        <v>0.7636049402214269</v>
       </c>
       <c r="H6">
-        <v>0.7483452814236671</v>
+        <v>0.009588843701735295</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01392753469919761</v>
       </c>
       <c r="J6">
-        <v>0.09101013042592498</v>
+        <v>0.5710336916846472</v>
       </c>
       <c r="K6">
-        <v>0.7308797327765433</v>
+        <v>0.6583134001599475</v>
       </c>
       <c r="L6">
-        <v>0.1385256142889233</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1961472640025939</v>
+        <v>0.7295716031443362</v>
       </c>
       <c r="N6">
-        <v>1.622876391541674</v>
+        <v>0.309779796519507</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9594030680537458</v>
+        <v>0.8755738884208029</v>
       </c>
       <c r="C7">
-        <v>0.08718096717442592</v>
+        <v>0.1096489674304095</v>
       </c>
       <c r="D7">
-        <v>0.03657194832718602</v>
+        <v>0.05569087980709853</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.300231633348552</v>
+        <v>0.8281054771972549</v>
       </c>
       <c r="G7">
-        <v>1.031596612250766</v>
+        <v>0.7759353177183925</v>
       </c>
       <c r="H7">
-        <v>0.7493708308179663</v>
+        <v>0.008785184030982496</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01296653627759348</v>
       </c>
       <c r="J7">
-        <v>0.09057810517679066</v>
+        <v>0.5753986821079451</v>
       </c>
       <c r="K7">
-        <v>0.7665713925991042</v>
+        <v>0.6644629986470534</v>
       </c>
       <c r="L7">
-        <v>0.141752295350706</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2035387987528274</v>
+        <v>0.7656817751758638</v>
       </c>
       <c r="N7">
-        <v>1.606734400920615</v>
+        <v>0.3244838823416814</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.136334045788516</v>
+        <v>1.05833098481304</v>
       </c>
       <c r="C8">
-        <v>0.09520111245083029</v>
+        <v>0.1242641297095233</v>
       </c>
       <c r="D8">
-        <v>0.04151275736257531</v>
+        <v>0.05972213090967671</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.340967493490382</v>
+        <v>0.8966532007015502</v>
       </c>
       <c r="G8">
-        <v>1.066816355878487</v>
+        <v>0.8350985401444859</v>
       </c>
       <c r="H8">
-        <v>0.7559751174748186</v>
+        <v>0.005750319978824414</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.009109895273050839</v>
       </c>
       <c r="J8">
-        <v>0.08881680762777577</v>
+        <v>0.597260671457704</v>
       </c>
       <c r="K8">
-        <v>0.9252901524684205</v>
+        <v>0.6949950770123223</v>
       </c>
       <c r="L8">
-        <v>0.1563124287110966</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2365934264528633</v>
+        <v>0.9242873192492311</v>
       </c>
       <c r="N8">
-        <v>1.538829952205312</v>
+        <v>0.3894171129425672</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.491585194153203</v>
+        <v>1.41806046160869</v>
       </c>
       <c r="C9">
-        <v>0.1109250630558947</v>
+        <v>0.1527811598467181</v>
       </c>
       <c r="D9">
-        <v>0.0514155415151123</v>
+        <v>0.06718529764652459</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.436707650912666</v>
+        <v>1.041700056563343</v>
       </c>
       <c r="G9">
-        <v>1.150038175282987</v>
+        <v>0.9614891675820587</v>
       </c>
       <c r="H9">
-        <v>0.7770054795001187</v>
+        <v>0.001847178219553491</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.00377832449508908</v>
       </c>
       <c r="J9">
-        <v>0.0859005029410902</v>
+        <v>0.6459536691816794</v>
       </c>
       <c r="K9">
-        <v>1.24220406251365</v>
+        <v>0.7614333667326889</v>
       </c>
       <c r="L9">
-        <v>0.1861588512137402</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3032703844131603</v>
+        <v>1.235127775726426</v>
       </c>
       <c r="N9">
-        <v>1.418205544258413</v>
+        <v>0.5171394213681992</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.759179916448318</v>
+        <v>1.676487197292374</v>
       </c>
       <c r="C10">
-        <v>0.1225418522592179</v>
+        <v>0.1775146138095138</v>
       </c>
       <c r="D10">
-        <v>0.05884806118432095</v>
+        <v>0.0737768860195871</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.518142864519589</v>
+        <v>1.129814231198552</v>
       </c>
       <c r="G10">
-        <v>1.221196270849703</v>
+        <v>1.032994601591383</v>
       </c>
       <c r="H10">
-        <v>0.7980034179530833</v>
+        <v>0.0006605636074410448</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001891346447512987</v>
       </c>
       <c r="J10">
-        <v>0.08410170322551735</v>
+        <v>0.6711697184681782</v>
       </c>
       <c r="K10">
-        <v>1.479829880804971</v>
+        <v>0.7920386560040171</v>
       </c>
       <c r="L10">
-        <v>0.2090191869506839</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3536851652130935</v>
+        <v>1.47118229727198</v>
       </c>
       <c r="N10">
-        <v>1.337808534944216</v>
+        <v>0.5816456669280257</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.882716604008323</v>
+        <v>1.744019318460886</v>
       </c>
       <c r="C11">
-        <v>0.127856865763377</v>
+        <v>0.219159887477872</v>
       </c>
       <c r="D11">
-        <v>0.06226980382488279</v>
+        <v>0.08776630636437233</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.557941598335276</v>
+        <v>1.002453125160343</v>
       </c>
       <c r="G11">
-        <v>1.25607526053011</v>
+        <v>0.8826529701417769</v>
       </c>
       <c r="H11">
-        <v>0.8089098462099003</v>
+        <v>0.01930199598720606</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.002113683552538603</v>
       </c>
       <c r="J11">
-        <v>0.08336188277558776</v>
+        <v>0.5897219996033698</v>
       </c>
       <c r="K11">
-        <v>1.589293180194858</v>
+        <v>0.6633268453907917</v>
       </c>
       <c r="L11">
-        <v>0.2196557000468999</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3770009425185208</v>
+        <v>1.628918702951665</v>
       </c>
       <c r="N11">
-        <v>1.303160549308217</v>
+        <v>0.3801248219979385</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.929789343103096</v>
+        <v>1.747338822921733</v>
       </c>
       <c r="C12">
-        <v>0.129875372943701</v>
+        <v>0.254816747066883</v>
       </c>
       <c r="D12">
-        <v>0.06357193785447635</v>
+        <v>0.09981764046207076</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.57343910321903</v>
+        <v>0.8881983816529413</v>
       </c>
       <c r="G12">
-        <v>1.26967377486983</v>
+        <v>0.7566227715724807</v>
       </c>
       <c r="H12">
-        <v>0.8132480838740577</v>
+        <v>0.0581343540304573</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002084062455502966</v>
       </c>
       <c r="J12">
-        <v>0.08309336448972715</v>
+        <v>0.5233893412433019</v>
       </c>
       <c r="K12">
-        <v>1.630969110074062</v>
+        <v>0.5640494228690756</v>
       </c>
       <c r="L12">
-        <v>0.223720629794812</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.385891222070903</v>
+        <v>1.712814403190521</v>
       </c>
       <c r="N12">
-        <v>1.290330029730519</v>
+        <v>0.2339701327745587</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.91963785510697</v>
+        <v>1.69965739022885</v>
       </c>
       <c r="C13">
-        <v>0.1294403677720481</v>
+        <v>0.2881836875590267</v>
       </c>
       <c r="D13">
-        <v>0.06329120640460673</v>
+        <v>0.1111963273190355</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.570081952348929</v>
+        <v>0.7711576860201461</v>
       </c>
       <c r="G13">
-        <v>1.266727219604746</v>
+        <v>0.6350753302397578</v>
       </c>
       <c r="H13">
-        <v>0.8123042810186405</v>
+        <v>0.1141607987074593</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.002235316962403644</v>
       </c>
       <c r="J13">
-        <v>0.08315067131162124</v>
+        <v>0.4612157810763335</v>
       </c>
       <c r="K13">
-        <v>1.621982994498381</v>
+        <v>0.4761068090270442</v>
       </c>
       <c r="L13">
-        <v>0.2228434736476999</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3839737201281892</v>
+        <v>1.745535266163728</v>
       </c>
       <c r="N13">
-        <v>1.293080197601647</v>
+        <v>0.1223722074247391</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.886583258986832</v>
+        <v>1.643068947200646</v>
       </c>
       <c r="C14">
-        <v>0.128022804051767</v>
+        <v>0.3113819959949922</v>
       </c>
       <c r="D14">
-        <v>0.06237679972683452</v>
+        <v>0.1190932218838441</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.559207853980709</v>
+        <v>0.6884019262818057</v>
       </c>
       <c r="G14">
-        <v>1.257186011166141</v>
+        <v>0.5528570711377085</v>
       </c>
       <c r="H14">
-        <v>0.8092625019667423</v>
+        <v>0.1637671667233889</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.002538756910445805</v>
       </c>
       <c r="J14">
-        <v>0.08333955630510204</v>
+        <v>0.419901923333228</v>
       </c>
       <c r="K14">
-        <v>1.592717214747722</v>
+        <v>0.4207033688962873</v>
       </c>
       <c r="L14">
-        <v>0.2199893624774774</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3777310894542723</v>
+        <v>1.745612061876756</v>
       </c>
       <c r="N14">
-        <v>1.302099085538529</v>
+        <v>0.06548208928426646</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.866375402713544</v>
+        <v>1.618170063643703</v>
       </c>
       <c r="C15">
-        <v>0.1271553092328617</v>
+        <v>0.3160748291124378</v>
       </c>
       <c r="D15">
-        <v>0.06181754898221214</v>
+        <v>0.1207380107033487</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.552603658808849</v>
+        <v>0.6659086963419725</v>
       </c>
       <c r="G15">
-        <v>1.251393537815446</v>
+        <v>0.5315868133139787</v>
       </c>
       <c r="H15">
-        <v>0.8074268568391574</v>
+        <v>0.1763942166093528</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.002796931105048195</v>
       </c>
       <c r="J15">
-        <v>0.08345678003782808</v>
+        <v>0.4096308433515929</v>
       </c>
       <c r="K15">
-        <v>1.574821195017989</v>
+        <v>0.4075755022824232</v>
       </c>
       <c r="L15">
-        <v>0.2182460630525895</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3739154469034958</v>
+        <v>1.734784710091986</v>
       </c>
       <c r="N15">
-        <v>1.307661577654372</v>
+        <v>0.05426119977314769</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.75114556024667</v>
+        <v>1.516915620241491</v>
       </c>
       <c r="C16">
-        <v>0.1221952374953617</v>
+        <v>0.2977462529761965</v>
       </c>
       <c r="D16">
-        <v>0.0586253062125266</v>
+        <v>0.115249072688826</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.515599896937516</v>
+        <v>0.6509385875568441</v>
       </c>
       <c r="G16">
-        <v>1.218969828903525</v>
+        <v>0.5246667577083173</v>
       </c>
       <c r="H16">
-        <v>0.7973190369338994</v>
+        <v>0.1642602829252553</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.003654109199572098</v>
       </c>
       <c r="J16">
-        <v>0.08415166068028768</v>
+        <v>0.4106298291621755</v>
       </c>
       <c r="K16">
-        <v>1.472706039781855</v>
+        <v>0.4115531213117585</v>
       </c>
       <c r="L16">
-        <v>0.2083290908590101</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3521696266451002</v>
+        <v>1.625228600550884</v>
       </c>
       <c r="N16">
-        <v>1.340112695662746</v>
+        <v>0.05307683588149814</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.680940689813411</v>
+        <v>1.469302212573524</v>
       </c>
       <c r="C17">
-        <v>0.1191611883950898</v>
+        <v>0.2710609391017726</v>
       </c>
       <c r="D17">
-        <v>0.05667775775322781</v>
+        <v>0.1067837156928988</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.493625592575498</v>
+        <v>0.6825886828251413</v>
       </c>
       <c r="G17">
-        <v>1.199742016355486</v>
+        <v>0.5618443582467449</v>
       </c>
       <c r="H17">
-        <v>0.7914743505851618</v>
+        <v>0.126814264427324</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.004207110197393504</v>
       </c>
       <c r="J17">
-        <v>0.08459828667870894</v>
+        <v>0.432847046705362</v>
       </c>
       <c r="K17">
-        <v>1.410430915975184</v>
+        <v>0.4428193921672374</v>
       </c>
       <c r="L17">
-        <v>0.2023081751755598</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3389313288572282</v>
+        <v>1.54153262945394</v>
       </c>
       <c r="N17">
-        <v>1.36052245551619</v>
+        <v>0.07835530391113821</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.640728666407313</v>
+        <v>1.4629326177633</v>
       </c>
       <c r="C18">
-        <v>0.1174188586018658</v>
+        <v>0.23618388862171</v>
       </c>
       <c r="D18">
-        <v>0.05556137045817167</v>
+        <v>0.09536939472533845</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.481243753367551</v>
+        <v>0.7637570963830029</v>
       </c>
       <c r="G18">
-        <v>1.188916911576456</v>
+        <v>0.6488012134789614</v>
       </c>
       <c r="H18">
-        <v>0.7882392553567428</v>
+        <v>0.07396924282846129</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.004120854129033624</v>
       </c>
       <c r="J18">
-        <v>0.08486253681580003</v>
+        <v>0.4795617115298398</v>
       </c>
       <c r="K18">
-        <v>1.374738689812006</v>
+        <v>0.5084804027592611</v>
       </c>
       <c r="L18">
-        <v>0.1988672407148755</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3313525530758952</v>
+        <v>1.470203574657347</v>
       </c>
       <c r="N18">
-        <v>1.372441958187288</v>
+        <v>0.1479364812911683</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.627141469277234</v>
+        <v>1.48802539685795</v>
       </c>
       <c r="C19">
-        <v>0.1168293703211845</v>
+        <v>0.2034359085236019</v>
       </c>
       <c r="D19">
-        <v>0.05518401599255895</v>
+        <v>0.08427089429290646</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.477094753370793</v>
+        <v>0.8783224074504687</v>
       </c>
       <c r="G19">
-        <v>1.185291073274243</v>
+        <v>0.7712237927864862</v>
       </c>
       <c r="H19">
-        <v>0.787165260560414</v>
+        <v>0.02829286318895186</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.004046699074617521</v>
       </c>
       <c r="J19">
-        <v>0.08495326158013583</v>
+        <v>0.5431162884178491</v>
       </c>
       <c r="K19">
-        <v>1.362674868334807</v>
+        <v>0.6009574364885495</v>
       </c>
       <c r="L19">
-        <v>0.1977059136812755</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3287924332422207</v>
+        <v>1.41726760523656</v>
       </c>
       <c r="N19">
-        <v>1.376508289191285</v>
+        <v>0.2765497930585781</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.688396508609458</v>
+        <v>1.60491680956568</v>
       </c>
       <c r="C20">
-        <v>0.1194838708401491</v>
+        <v>0.1727837297489572</v>
       </c>
       <c r="D20">
-        <v>0.05688468141148206</v>
+        <v>0.0727442388555346</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.495937961017603</v>
+        <v>1.093350611095246</v>
       </c>
       <c r="G20">
-        <v>1.201764399648596</v>
+        <v>0.9995787456938103</v>
       </c>
       <c r="H20">
-        <v>0.7920833292231038</v>
+        <v>0.0008760495185682338</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.003103276540928235</v>
       </c>
       <c r="J20">
-        <v>0.08454997809521458</v>
+        <v>0.6570706813323142</v>
       </c>
       <c r="K20">
-        <v>1.417046891506402</v>
+        <v>0.7724702708642326</v>
       </c>
       <c r="L20">
-        <v>0.2029467998134962</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3403368463263448</v>
+        <v>1.412690298454294</v>
       </c>
       <c r="N20">
-        <v>1.358331044654001</v>
+        <v>0.5632980707598279</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.896283998369711</v>
+        <v>1.812626021495248</v>
       </c>
       <c r="C21">
-        <v>0.128439006587044</v>
+        <v>0.1874630973935254</v>
       </c>
       <c r="D21">
-        <v>0.06264520500635484</v>
+        <v>0.07605071820631792</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.562390006823563</v>
+        <v>1.194412741140752</v>
       </c>
       <c r="G21">
-        <v>1.259977645353217</v>
+        <v>1.091026071970916</v>
       </c>
       <c r="H21">
-        <v>0.8101501829767415</v>
+        <v>8.569586392193074E-05</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.002044237008454353</v>
       </c>
       <c r="J21">
-        <v>0.08328375747457528</v>
+        <v>0.6950768260895615</v>
       </c>
       <c r="K21">
-        <v>1.601306954339663</v>
+        <v>0.8244452424921533</v>
       </c>
       <c r="L21">
-        <v>0.220826651848725</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3795629914370053</v>
+        <v>1.585673635321655</v>
       </c>
       <c r="N21">
-        <v>1.299442041573393</v>
+        <v>0.6591116469018914</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.033869765970735</v>
+        <v>1.947268798254839</v>
       </c>
       <c r="C22">
-        <v>0.1343264345610748</v>
+        <v>0.198011799838163</v>
       </c>
       <c r="D22">
-        <v>0.06644759752832385</v>
+        <v>0.07847313171244963</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.608322699744633</v>
+        <v>1.256562643370671</v>
       </c>
       <c r="G22">
-        <v>1.300315623516113</v>
+        <v>1.146278873987541</v>
       </c>
       <c r="H22">
-        <v>0.8231785439180044</v>
+        <v>3.126549648069243E-06</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001459719200923359</v>
       </c>
       <c r="J22">
-        <v>0.08252421342567828</v>
+        <v>0.7176605041008344</v>
       </c>
       <c r="K22">
-        <v>1.723055100657461</v>
+        <v>0.8545503042072298</v>
       </c>
       <c r="L22">
-        <v>0.2327300498028393</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4055589095237693</v>
+        <v>1.700597197705662</v>
       </c>
       <c r="N22">
-        <v>1.262651397277324</v>
+        <v>0.7068193238757772</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.960269001918675</v>
+        <v>1.876709809034651</v>
       </c>
       <c r="C23">
-        <v>0.1311805142704401</v>
+        <v>0.1917170120313614</v>
       </c>
       <c r="D23">
-        <v>0.06441455990645295</v>
+        <v>0.07693168331179123</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.583567831958987</v>
+        <v>1.228001875891835</v>
       </c>
       <c r="G23">
-        <v>1.27856627031673</v>
+        <v>1.121903927717909</v>
       </c>
       <c r="H23">
-        <v>0.8161086493654892</v>
+        <v>1.614910236424905E-05</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001418255364792564</v>
       </c>
       <c r="J23">
-        <v>0.08292325052518734</v>
+        <v>0.708203206082203</v>
       </c>
       <c r="K23">
-        <v>1.657944845497099</v>
+        <v>0.8425796033347694</v>
       </c>
       <c r="L23">
-        <v>0.2263559953182011</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3916493448123219</v>
+        <v>1.637905940298737</v>
       </c>
       <c r="N23">
-        <v>1.28212740106418</v>
+        <v>0.6813933164999497</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.68502526908739</v>
+        <v>1.607879967302722</v>
       </c>
       <c r="C24">
-        <v>0.119337980030167</v>
+        <v>0.1693520727814075</v>
       </c>
       <c r="D24">
-        <v>0.0567911210366816</v>
+        <v>0.07148083806141869</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.494891758226601</v>
+        <v>1.114069666584058</v>
       </c>
       <c r="G24">
-        <v>1.200849368418275</v>
+        <v>1.022771009713367</v>
       </c>
       <c r="H24">
-        <v>0.7918076213494487</v>
+        <v>0.0007023304496147631</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.002565437639200141</v>
       </c>
       <c r="J24">
-        <v>0.0845717951370375</v>
+        <v>0.6689960937235924</v>
       </c>
       <c r="K24">
-        <v>1.414055466659846</v>
+        <v>0.7911772775143007</v>
       </c>
       <c r="L24">
-        <v>0.2026580137672767</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3397013123630614</v>
+        <v>1.403673954880958</v>
       </c>
       <c r="N24">
-        <v>1.359321204194707</v>
+        <v>0.5853887493477856</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.394440457889885</v>
+        <v>1.318769479541515</v>
       </c>
       <c r="C25">
-        <v>0.1066651423378744</v>
+        <v>0.1459097340176712</v>
       </c>
       <c r="D25">
-        <v>0.04871105109120322</v>
+        <v>0.06553813863243363</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.408968307301848</v>
+        <v>0.994834935773909</v>
       </c>
       <c r="G25">
-        <v>1.125871804900456</v>
+        <v>0.9190236726462189</v>
       </c>
       <c r="H25">
-        <v>0.7703897444231558</v>
+        <v>0.002678028395994292</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.005393143060843819</v>
       </c>
       <c r="J25">
-        <v>0.08663029405053102</v>
+        <v>0.628505163211571</v>
       </c>
       <c r="K25">
-        <v>1.155731627170582</v>
+        <v>0.7370710821491997</v>
       </c>
       <c r="L25">
-        <v>0.1779318547255855</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2850044450248319</v>
+        <v>1.15274728461938</v>
       </c>
       <c r="N25">
-        <v>1.449437954999404</v>
+        <v>0.4824443349586005</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_24/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.10931328249967</v>
+        <v>1.08106598159938</v>
       </c>
       <c r="C2">
-        <v>0.1275378965407299</v>
+        <v>0.1314898947586869</v>
       </c>
       <c r="D2">
-        <v>0.06053263789813812</v>
+        <v>0.06481570225120237</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9210554960263835</v>
+        <v>0.7809143622967909</v>
       </c>
       <c r="G2">
-        <v>0.8574926234512503</v>
+        <v>0.6881760257398355</v>
       </c>
       <c r="H2">
-        <v>0.005046298410882</v>
+        <v>0.003772256397688745</v>
       </c>
       <c r="I2">
-        <v>0.007869569094252959</v>
+        <v>0.005634208567521171</v>
       </c>
       <c r="J2">
-        <v>0.6064806988977125</v>
+        <v>0.5444423271114545</v>
       </c>
       <c r="K2">
-        <v>0.708246648561925</v>
+        <v>0.5738431708164669</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2506688438560545</v>
       </c>
       <c r="M2">
-        <v>0.9658245614833163</v>
+        <v>0.1826467861801042</v>
       </c>
       <c r="N2">
-        <v>0.4070824654921665</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.006915477057987</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.4127116526408088</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9655295428849513</v>
+        <v>0.9428410388815109</v>
       </c>
       <c r="C3">
-        <v>0.1161153989846255</v>
+        <v>0.1166712796831249</v>
       </c>
       <c r="D3">
-        <v>0.05743018340611172</v>
+        <v>0.06013286881370306</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8658172022040489</v>
+        <v>0.7429905165538599</v>
       </c>
       <c r="G3">
-        <v>0.8096396780306065</v>
+        <v>0.6614482265898118</v>
       </c>
       <c r="H3">
-        <v>0.00719530272028418</v>
+        <v>0.005478525367901277</v>
       </c>
       <c r="I3">
-        <v>0.01063768266465459</v>
+        <v>0.007638246782652125</v>
       </c>
       <c r="J3">
-        <v>0.5885446929013227</v>
+        <v>0.5313587107341249</v>
       </c>
       <c r="K3">
-        <v>0.6833587258159142</v>
+        <v>0.5629807871119183</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2521074694265124</v>
       </c>
       <c r="M3">
-        <v>0.8413122725596054</v>
+        <v>0.1745162122371937</v>
       </c>
       <c r="N3">
-        <v>0.3560305394560714</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8763896786180965</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.362061700860977</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8771264269737742</v>
+        <v>0.8577211222122116</v>
       </c>
       <c r="C4">
-        <v>0.1091756145404545</v>
+        <v>0.1077354090169749</v>
       </c>
       <c r="D4">
-        <v>0.05551178512952148</v>
+        <v>0.05726997423658275</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8322878769669799</v>
+        <v>0.7199218985922826</v>
       </c>
       <c r="G4">
-        <v>0.7805226697619787</v>
+        <v>0.6453152562205275</v>
       </c>
       <c r="H4">
-        <v>0.008760605555340556</v>
+        <v>0.006730434108666805</v>
       </c>
       <c r="I4">
-        <v>0.01265559501546454</v>
+        <v>0.009123328811791787</v>
       </c>
       <c r="J4">
-        <v>0.5777357599449289</v>
+        <v>0.5232529927225471</v>
       </c>
       <c r="K4">
-        <v>0.6680932510952502</v>
+        <v>0.5562367689723544</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.252834791403501</v>
       </c>
       <c r="M4">
-        <v>0.7650197520710265</v>
+        <v>0.1701452762454245</v>
       </c>
       <c r="N4">
-        <v>0.3246988487684206</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7963911558898644</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.330952838632669</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8407482675414997</v>
+        <v>0.8226771095606296</v>
       </c>
       <c r="C5">
-        <v>0.1065130337712645</v>
+        <v>0.1043236779018102</v>
       </c>
       <c r="D5">
-        <v>0.05478216025589688</v>
+        <v>0.05617155915740923</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8175204493843964</v>
+        <v>0.7095621313615013</v>
       </c>
       <c r="G5">
-        <v>0.767395258674199</v>
+        <v>0.6377205947626265</v>
       </c>
       <c r="H5">
-        <v>0.009462732605126228</v>
+        <v>0.007293941002015691</v>
       </c>
       <c r="I5">
-        <v>0.01364336654059972</v>
+        <v>0.009889108763980303</v>
       </c>
       <c r="J5">
-        <v>0.5726985983769453</v>
+        <v>0.5193497590636014</v>
       </c>
       <c r="K5">
-        <v>0.660814972926751</v>
+        <v>0.5526199492066866</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2527120439631254</v>
       </c>
       <c r="M5">
-        <v>0.7342808116307822</v>
+        <v>0.1682633008237069</v>
       </c>
       <c r="N5">
-        <v>0.3119177699809086</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7641208815353195</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.3182572545414075</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8343181660465291</v>
+        <v>0.8164997095568935</v>
       </c>
       <c r="C6">
-        <v>0.1062578568429657</v>
+        <v>0.1039971958660857</v>
       </c>
       <c r="D6">
-        <v>0.05472950009529498</v>
+        <v>0.05606998595018098</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8136157850581256</v>
+        <v>0.7066144776902661</v>
       </c>
       <c r="G6">
-        <v>0.7636049402214269</v>
+        <v>0.6351413187740462</v>
       </c>
       <c r="H6">
-        <v>0.009588843701735295</v>
+        <v>0.007395326815622605</v>
       </c>
       <c r="I6">
-        <v>0.01392753469919761</v>
+        <v>0.010149782534846</v>
       </c>
       <c r="J6">
-        <v>0.5710336916846472</v>
+        <v>0.5179908661929744</v>
       </c>
       <c r="K6">
-        <v>0.6583134001599475</v>
+        <v>0.5509830471267065</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2522266469129946</v>
       </c>
       <c r="M6">
-        <v>0.7295716031443362</v>
+        <v>0.1676471219610072</v>
       </c>
       <c r="N6">
-        <v>0.309779796519507</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7591336832056186</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.3161331026267078</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8755738884208029</v>
+        <v>0.8565309107683561</v>
       </c>
       <c r="C7">
-        <v>0.1096489674304095</v>
+        <v>0.108116700965283</v>
       </c>
       <c r="D7">
-        <v>0.05569087980709853</v>
+        <v>0.05761559539310923</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8281054771972549</v>
+        <v>0.7144319273930222</v>
       </c>
       <c r="G7">
-        <v>0.7759353177183925</v>
+        <v>0.6441355576563268</v>
       </c>
       <c r="H7">
-        <v>0.008785184030982496</v>
+        <v>0.00675563931461709</v>
       </c>
       <c r="I7">
-        <v>0.01296653627759348</v>
+        <v>0.009477583029396719</v>
       </c>
       <c r="J7">
-        <v>0.5753986821079451</v>
+        <v>0.515209189048349</v>
       </c>
       <c r="K7">
-        <v>0.6644629986470534</v>
+        <v>0.5520931537827209</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2510372006017718</v>
       </c>
       <c r="M7">
-        <v>0.7656817751758638</v>
+        <v>0.1688465232629177</v>
       </c>
       <c r="N7">
-        <v>0.3244838823416814</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7966220120178207</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.3307207857203025</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05833098481304</v>
+        <v>1.032998356715808</v>
       </c>
       <c r="C8">
-        <v>0.1242641297095233</v>
+        <v>0.126465634533325</v>
       </c>
       <c r="D8">
-        <v>0.05972213090967671</v>
+        <v>0.06397962640722454</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8966532007015502</v>
+        <v>0.7568051531684645</v>
       </c>
       <c r="G8">
-        <v>0.8350985401444859</v>
+        <v>0.682637859815685</v>
       </c>
       <c r="H8">
-        <v>0.005750319978824414</v>
+        <v>0.00434261830842575</v>
       </c>
       <c r="I8">
-        <v>0.009109895273050839</v>
+        <v>0.006695871462294889</v>
       </c>
       <c r="J8">
-        <v>0.597260671457704</v>
+        <v>0.517648989722943</v>
       </c>
       <c r="K8">
-        <v>0.6949950770123223</v>
+        <v>0.5622658417489106</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2479599750954193</v>
       </c>
       <c r="M8">
-        <v>0.9242873192492311</v>
+        <v>0.1770684923856436</v>
       </c>
       <c r="N8">
-        <v>0.3894171129425672</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9620597020245043</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3951319267201114</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.41806046160869</v>
+        <v>1.378172727202951</v>
       </c>
       <c r="C9">
-        <v>0.1527811598467181</v>
+        <v>0.1635659680992632</v>
       </c>
       <c r="D9">
-        <v>0.06718529764652459</v>
+        <v>0.07565793139688992</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.041700056563343</v>
+        <v>0.855126136183415</v>
       </c>
       <c r="G9">
-        <v>0.9614891675820587</v>
+        <v>0.7578908950330145</v>
       </c>
       <c r="H9">
-        <v>0.001847178219553491</v>
+        <v>0.001291139122733265</v>
       </c>
       <c r="I9">
-        <v>0.00377832449508908</v>
+        <v>0.00283404396469944</v>
       </c>
       <c r="J9">
-        <v>0.6459536691816794</v>
+        <v>0.5468318879379694</v>
       </c>
       <c r="K9">
-        <v>0.7614333667326889</v>
+        <v>0.5912863823518748</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2447440338884093</v>
       </c>
       <c r="M9">
-        <v>1.235127775726426</v>
+        <v>0.2013134247865409</v>
       </c>
       <c r="N9">
-        <v>0.5171394213681992</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.287475062885107</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.5216650483195906</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.676487197292374</v>
+        <v>1.627597746803929</v>
       </c>
       <c r="C10">
-        <v>0.1775146138095138</v>
+        <v>0.1942694412175854</v>
       </c>
       <c r="D10">
-        <v>0.0737768860195871</v>
+        <v>0.08655754937171878</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.129814231198552</v>
+        <v>0.901967863474411</v>
       </c>
       <c r="G10">
-        <v>1.032994601591383</v>
+        <v>0.8133591666567952</v>
       </c>
       <c r="H10">
-        <v>0.0006605636074410448</v>
+        <v>0.0004705065579466705</v>
       </c>
       <c r="I10">
-        <v>0.001891346447512987</v>
+        <v>0.001663230649232794</v>
       </c>
       <c r="J10">
-        <v>0.6711697184681782</v>
+        <v>0.5267719681678926</v>
       </c>
       <c r="K10">
-        <v>0.7920386560040171</v>
+        <v>0.5926119117093904</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2346465146794507</v>
       </c>
       <c r="M10">
-        <v>1.47118229727198</v>
+        <v>0.2143794962615466</v>
       </c>
       <c r="N10">
-        <v>0.5816456669280257</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.531101475220339</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.5849807230343913</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.744019318460886</v>
+        <v>1.702158998633848</v>
       </c>
       <c r="C11">
-        <v>0.219159887477872</v>
+        <v>0.2392188108468218</v>
       </c>
       <c r="D11">
-        <v>0.08776630636437233</v>
+        <v>0.1054211791899107</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.002453125160343</v>
+        <v>0.7822322841787326</v>
       </c>
       <c r="G11">
-        <v>0.8826529701417769</v>
+        <v>0.7283174849383016</v>
       </c>
       <c r="H11">
-        <v>0.01930199598720606</v>
+        <v>0.01911941133611705</v>
       </c>
       <c r="I11">
-        <v>0.002113683552538603</v>
+        <v>0.002119287021531413</v>
       </c>
       <c r="J11">
-        <v>0.5897219996033698</v>
+        <v>0.4106351198697098</v>
       </c>
       <c r="K11">
-        <v>0.6633268453907917</v>
+        <v>0.4865108439984311</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1934272692485415</v>
       </c>
       <c r="M11">
-        <v>1.628918702951665</v>
+        <v>0.1773151271984261</v>
       </c>
       <c r="N11">
-        <v>0.3801248219979385</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.681444233857007</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.3826250081853146</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.747338822921733</v>
+        <v>1.712399732275713</v>
       </c>
       <c r="C12">
-        <v>0.254816747066883</v>
+        <v>0.2748706557730998</v>
       </c>
       <c r="D12">
-        <v>0.09981764046207076</v>
+        <v>0.1198132967541952</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8881983816529413</v>
+        <v>0.6884934435188725</v>
       </c>
       <c r="G12">
-        <v>0.7566227715724807</v>
+        <v>0.6447450391298588</v>
       </c>
       <c r="H12">
-        <v>0.0581343540304573</v>
+        <v>0.05792699860722195</v>
       </c>
       <c r="I12">
-        <v>0.002084062455502966</v>
+        <v>0.002101199299532119</v>
       </c>
       <c r="J12">
-        <v>0.5233893412433019</v>
+        <v>0.3489779473220338</v>
       </c>
       <c r="K12">
-        <v>0.5640494228690756</v>
+        <v>0.4139836930337282</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1676174896581095</v>
       </c>
       <c r="M12">
-        <v>1.712814403190521</v>
+        <v>0.1492509870922625</v>
       </c>
       <c r="N12">
-        <v>0.2339701327745587</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.758330989564996</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2360990036090698</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.69965739022885</v>
+        <v>1.671350372239203</v>
       </c>
       <c r="C13">
-        <v>0.2881836875590267</v>
+        <v>0.3072239271399155</v>
       </c>
       <c r="D13">
-        <v>0.1111963273190355</v>
+        <v>0.1307844635071405</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7711576860201461</v>
+        <v>0.6062839563554334</v>
       </c>
       <c r="G13">
-        <v>0.6350753302397578</v>
+        <v>0.5478806711986266</v>
       </c>
       <c r="H13">
-        <v>0.1141607987074593</v>
+        <v>0.1138879005295337</v>
       </c>
       <c r="I13">
-        <v>0.002235316962403644</v>
+        <v>0.002168566901954883</v>
       </c>
       <c r="J13">
-        <v>0.4612157810763335</v>
+        <v>0.320914507669805</v>
       </c>
       <c r="K13">
-        <v>0.4761068090270442</v>
+        <v>0.3586169151307459</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1494453312753841</v>
       </c>
       <c r="M13">
-        <v>1.745535266163728</v>
+        <v>0.1257056219186445</v>
       </c>
       <c r="N13">
-        <v>0.1223722074247391</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.784999760823695</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1243756405161278</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.643068947200646</v>
+        <v>1.61927774721201</v>
       </c>
       <c r="C14">
-        <v>0.3113819959949922</v>
+        <v>0.329257547488865</v>
       </c>
       <c r="D14">
-        <v>0.1190932218838441</v>
+        <v>0.1369434787907124</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6884019262818057</v>
+        <v>0.5527737928293206</v>
       </c>
       <c r="G14">
-        <v>0.5528570711377085</v>
+        <v>0.4764203091393853</v>
       </c>
       <c r="H14">
-        <v>0.1637671667233889</v>
+        <v>0.1634238492083142</v>
       </c>
       <c r="I14">
-        <v>0.002538756910445805</v>
+        <v>0.002375403564280454</v>
       </c>
       <c r="J14">
-        <v>0.419901923333228</v>
+        <v>0.3123107153559985</v>
       </c>
       <c r="K14">
-        <v>0.4207033688962873</v>
+        <v>0.3269245239837169</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1395767168643811</v>
       </c>
       <c r="M14">
-        <v>1.745612061876756</v>
+        <v>0.1113607654063671</v>
       </c>
       <c r="N14">
-        <v>0.06548208928426646</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.781210874831174</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.06746034118095423</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.618170063643703</v>
+        <v>1.595477029768887</v>
       </c>
       <c r="C15">
-        <v>0.3160748291124378</v>
+        <v>0.3337425854419394</v>
       </c>
       <c r="D15">
-        <v>0.1207380107033487</v>
+        <v>0.1376092026602436</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6659086963419725</v>
+        <v>0.5399768055170853</v>
       </c>
       <c r="G15">
-        <v>0.5315868133139787</v>
+        <v>0.4558747682886519</v>
       </c>
       <c r="H15">
-        <v>0.1763942166093528</v>
+        <v>0.1760172386473045</v>
       </c>
       <c r="I15">
-        <v>0.002796931105048195</v>
+        <v>0.002603782988255254</v>
       </c>
       <c r="J15">
-        <v>0.4096308433515929</v>
+        <v>0.3141722391437298</v>
       </c>
       <c r="K15">
-        <v>0.4075755022824232</v>
+        <v>0.3206199041034026</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1378035365728323</v>
       </c>
       <c r="M15">
-        <v>1.734784710091986</v>
+        <v>0.1081548537795634</v>
       </c>
       <c r="N15">
-        <v>0.05426119977314769</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.769627387432905</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.05626777826586249</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.516915620241491</v>
+        <v>1.494247274494398</v>
       </c>
       <c r="C16">
-        <v>0.2977462529761965</v>
+        <v>0.3164139593860398</v>
       </c>
       <c r="D16">
-        <v>0.115249072688826</v>
+        <v>0.1278204065831972</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6509385875568441</v>
+        <v>0.5472132093947408</v>
       </c>
       <c r="G16">
-        <v>0.5246667577083173</v>
+        <v>0.4337652935584373</v>
       </c>
       <c r="H16">
-        <v>0.1642602829252553</v>
+        <v>0.1637057298959377</v>
       </c>
       <c r="I16">
-        <v>0.003654109199572098</v>
+        <v>0.003199336084254156</v>
       </c>
       <c r="J16">
-        <v>0.4106298291621755</v>
+        <v>0.3538346747602006</v>
       </c>
       <c r="K16">
-        <v>0.4115531213117585</v>
+        <v>0.3346593767764183</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1442573959952789</v>
       </c>
       <c r="M16">
-        <v>1.625228600550884</v>
+        <v>0.1109778752755695</v>
       </c>
       <c r="N16">
-        <v>0.05307683588149814</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.661763507777664</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.05545846943742561</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.469302212573524</v>
+        <v>1.444699791615903</v>
       </c>
       <c r="C17">
-        <v>0.2710609391017726</v>
+        <v>0.29041881194469</v>
       </c>
       <c r="D17">
-        <v>0.1067837156928988</v>
+        <v>0.117673252832077</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6825886828251413</v>
+        <v>0.5796183757085487</v>
       </c>
       <c r="G17">
-        <v>0.5618443582467449</v>
+        <v>0.4554485543714151</v>
       </c>
       <c r="H17">
-        <v>0.126814264427324</v>
+        <v>0.1261581585621485</v>
       </c>
       <c r="I17">
-        <v>0.004207110197393504</v>
+        <v>0.00359994188434154</v>
       </c>
       <c r="J17">
-        <v>0.432847046705362</v>
+        <v>0.3884110551223401</v>
       </c>
       <c r="K17">
-        <v>0.4428193921672374</v>
+        <v>0.36183732769355</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1549199194634152</v>
       </c>
       <c r="M17">
-        <v>1.54153262945394</v>
+        <v>0.1200712298566842</v>
       </c>
       <c r="N17">
-        <v>0.07835530391113821</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.58073443557484</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.08108449617650137</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.4629326177633</v>
+        <v>1.433869464481063</v>
       </c>
       <c r="C18">
-        <v>0.23618388862171</v>
+        <v>0.2559986126494351</v>
       </c>
       <c r="D18">
-        <v>0.09536939472533845</v>
+        <v>0.1058146513639997</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7637570963830029</v>
+        <v>0.6452685579726278</v>
       </c>
       <c r="G18">
-        <v>0.6488012134789614</v>
+        <v>0.5177002782869096</v>
       </c>
       <c r="H18">
-        <v>0.07396924282846129</v>
+        <v>0.07330322487057117</v>
       </c>
       <c r="I18">
-        <v>0.004120854129033624</v>
+        <v>0.003425620850652678</v>
       </c>
       <c r="J18">
-        <v>0.4795617115298398</v>
+        <v>0.4316327334566239</v>
       </c>
       <c r="K18">
-        <v>0.5084804027592611</v>
+        <v>0.4104610499121151</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1731560102677214</v>
       </c>
       <c r="M18">
-        <v>1.470203574657347</v>
+        <v>0.1380062890018401</v>
       </c>
       <c r="N18">
-        <v>0.1479364812911683</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.514001834505422</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1510713085194126</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.48802539685795</v>
+        <v>1.452712477526774</v>
       </c>
       <c r="C19">
-        <v>0.2034359085236019</v>
+        <v>0.2227633865533392</v>
       </c>
       <c r="D19">
-        <v>0.08427089429290646</v>
+        <v>0.09471129623137386</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8783224074504687</v>
+        <v>0.7327610872993162</v>
       </c>
       <c r="G19">
-        <v>0.7712237927864862</v>
+        <v>0.6067318242860296</v>
       </c>
       <c r="H19">
-        <v>0.02829286318895186</v>
+        <v>0.02771577028238426</v>
       </c>
       <c r="I19">
-        <v>0.004046699074617521</v>
+        <v>0.003445405124061551</v>
       </c>
       <c r="J19">
-        <v>0.5431162884178491</v>
+        <v>0.4812964493577283</v>
       </c>
       <c r="K19">
-        <v>0.6009574364885495</v>
+        <v>0.4756070707422246</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1971333761844463</v>
       </c>
       <c r="M19">
-        <v>1.41726760523656</v>
+        <v>0.1628299779728977</v>
       </c>
       <c r="N19">
-        <v>0.2765497930585781</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.466838902606526</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2800987857074517</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.60491680956568</v>
+        <v>1.557890529878449</v>
       </c>
       <c r="C20">
-        <v>0.1727837297489572</v>
+        <v>0.1893919907712984</v>
       </c>
       <c r="D20">
-        <v>0.0727442388555346</v>
+        <v>0.08395446974975584</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.093350611095246</v>
+        <v>0.8858519542903167</v>
       </c>
       <c r="G20">
-        <v>0.9995787456938103</v>
+        <v>0.7777256532542509</v>
       </c>
       <c r="H20">
-        <v>0.0008760495185682338</v>
+        <v>0.0005994028964422249</v>
       </c>
       <c r="I20">
-        <v>0.003103276540928235</v>
+        <v>0.002858308560854894</v>
       </c>
       <c r="J20">
-        <v>0.6570706813323142</v>
+        <v>0.5463362854080884</v>
       </c>
       <c r="K20">
-        <v>0.7724702708642326</v>
+        <v>0.5878711805769115</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2356827783851365</v>
       </c>
       <c r="M20">
-        <v>1.412690298454294</v>
+        <v>0.2090955311811946</v>
       </c>
       <c r="N20">
-        <v>0.5632980707598279</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.471743550768082</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.5670266489802742</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.812626021495248</v>
+        <v>1.761773822779134</v>
       </c>
       <c r="C21">
-        <v>0.1874630973935254</v>
+        <v>0.2032703832474283</v>
       </c>
       <c r="D21">
-        <v>0.07605071820631792</v>
+        <v>0.09355139151964664</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.194412741140752</v>
+        <v>0.9100130407400684</v>
       </c>
       <c r="G21">
-        <v>1.091026071970916</v>
+        <v>0.8987397915236244</v>
       </c>
       <c r="H21">
-        <v>8.569586392193074E-05</v>
+        <v>3.38330952345256E-05</v>
       </c>
       <c r="I21">
-        <v>0.002044237008454353</v>
+        <v>0.002222771388397327</v>
       </c>
       <c r="J21">
-        <v>0.6950768260895615</v>
+        <v>0.4469349429786007</v>
       </c>
       <c r="K21">
-        <v>0.8244452424921533</v>
+        <v>0.586031889033606</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2272263866808686</v>
       </c>
       <c r="M21">
-        <v>1.585673635321655</v>
+        <v>0.2185023751370636</v>
       </c>
       <c r="N21">
-        <v>0.6591116469018914</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.644638280826001</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.6615637678878556</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.947268798254839</v>
+        <v>1.894595978444073</v>
       </c>
       <c r="C22">
-        <v>0.198011799838163</v>
+        <v>0.2130988237090605</v>
       </c>
       <c r="D22">
-        <v>0.07847313171244963</v>
+        <v>0.1005386169321767</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.256562643370671</v>
+        <v>0.9201379156655207</v>
       </c>
       <c r="G22">
-        <v>1.146278873987541</v>
+        <v>0.9824988929921261</v>
       </c>
       <c r="H22">
-        <v>3.126549648069243E-06</v>
+        <v>1.481593274355042E-05</v>
       </c>
       <c r="I22">
-        <v>0.001459719200923359</v>
+        <v>0.001723232575811195</v>
       </c>
       <c r="J22">
-        <v>0.7176605041008344</v>
+        <v>0.3842884981933281</v>
       </c>
       <c r="K22">
-        <v>0.8545503042072298</v>
+        <v>0.5806399263837108</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2204234876327611</v>
       </c>
       <c r="M22">
-        <v>1.700597197705662</v>
+        <v>0.223242323419548</v>
       </c>
       <c r="N22">
-        <v>0.7068193238757772</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.75843429421468</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.7083513784170918</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.876709809034651</v>
+        <v>1.824186903971707</v>
       </c>
       <c r="C23">
-        <v>0.1917170120313614</v>
+        <v>0.2076146477247107</v>
       </c>
       <c r="D23">
-        <v>0.07693168331179123</v>
+        <v>0.09600916468527743</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.228001875891835</v>
+        <v>0.9234507433277486</v>
       </c>
       <c r="G23">
-        <v>1.121903927717909</v>
+        <v>0.9342507871770067</v>
       </c>
       <c r="H23">
-        <v>1.614910236424905E-05</v>
+        <v>1.365222755955742E-06</v>
       </c>
       <c r="I23">
-        <v>0.001418255364792564</v>
+        <v>0.001584632410776443</v>
       </c>
       <c r="J23">
-        <v>0.708203206082203</v>
+        <v>0.4298585702816098</v>
       </c>
       <c r="K23">
-        <v>0.8425796033347694</v>
+        <v>0.5895765005128126</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2260877915214223</v>
       </c>
       <c r="M23">
-        <v>1.637905940298737</v>
+        <v>0.2231852671273487</v>
       </c>
       <c r="N23">
-        <v>0.6813933164999497</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.697407855901872</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.6834569492447713</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.607879967302722</v>
+        <v>1.560011562285098</v>
       </c>
       <c r="C24">
-        <v>0.1693520727814075</v>
+        <v>0.185193023534211</v>
       </c>
       <c r="D24">
-        <v>0.07148083806141869</v>
+        <v>0.08245113213862965</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.114069666584058</v>
+        <v>0.9021896474306317</v>
       </c>
       <c r="G24">
-        <v>1.022771009713367</v>
+        <v>0.7947871703107694</v>
       </c>
       <c r="H24">
-        <v>0.0007023304496147631</v>
+        <v>0.000438516565529401</v>
       </c>
       <c r="I24">
-        <v>0.002565437639200141</v>
+        <v>0.002230010186250908</v>
       </c>
       <c r="J24">
-        <v>0.6689960937235924</v>
+        <v>0.5563246077120851</v>
       </c>
       <c r="K24">
-        <v>0.7911772775143007</v>
+        <v>0.6015640095915913</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2407441653222726</v>
       </c>
       <c r="M24">
-        <v>1.403673954880958</v>
+        <v>0.2142887018188127</v>
       </c>
       <c r="N24">
-        <v>0.5853887493477856</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.463354579617857</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.5891521670087911</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.318769479541515</v>
+        <v>1.282772259297332</v>
       </c>
       <c r="C25">
-        <v>0.1459097340176712</v>
+        <v>0.1549383213151714</v>
       </c>
       <c r="D25">
-        <v>0.06553813863243363</v>
+        <v>0.07271091716670242</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.994834935773909</v>
+        <v>0.8251466092080761</v>
       </c>
       <c r="G25">
-        <v>0.9190236726462189</v>
+        <v>0.7271329090562233</v>
       </c>
       <c r="H25">
-        <v>0.002678028395994292</v>
+        <v>0.001926002592346432</v>
       </c>
       <c r="I25">
-        <v>0.005393143060843819</v>
+        <v>0.004184715381894577</v>
       </c>
       <c r="J25">
-        <v>0.628505163211571</v>
+        <v>0.5440568607892686</v>
       </c>
       <c r="K25">
-        <v>0.7370710821491997</v>
+        <v>0.58035184894851</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2445464774721806</v>
       </c>
       <c r="M25">
-        <v>1.15274728461938</v>
+        <v>0.1930638710596071</v>
       </c>
       <c r="N25">
-        <v>0.4824443349586005</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.201584403613111</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.4873510138187243</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
